--- a/Code/Results/Cases/Case_6_1/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_1/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.34833151746449</v>
+        <v>12.93107323408403</v>
       </c>
       <c r="C2">
-        <v>9.144920181347498</v>
+        <v>7.453071406243063</v>
       </c>
       <c r="D2">
-        <v>1.915004165555474</v>
+        <v>4.769930303539038</v>
       </c>
       <c r="E2">
-        <v>6.532237510100106</v>
+        <v>7.942953177859052</v>
       </c>
       <c r="F2">
-        <v>43.58023413334831</v>
+        <v>27.8060364655407</v>
       </c>
       <c r="G2">
-        <v>2.158454045204574</v>
+        <v>2.142495306770606</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.49788515250224</v>
+        <v>6.450095218101611</v>
       </c>
       <c r="K2">
-        <v>14.21404498929137</v>
+        <v>10.33799800390087</v>
       </c>
       <c r="L2">
-        <v>6.165311541646984</v>
+        <v>6.181755303238075</v>
       </c>
       <c r="M2">
-        <v>11.93810695376085</v>
+        <v>9.754545003875762</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>33.44440759730325</v>
+        <v>21.1929256731532</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.35158944822422</v>
+        <v>12.16908481286198</v>
       </c>
       <c r="C3">
-        <v>8.5869829260833</v>
+        <v>7.424883618166475</v>
       </c>
       <c r="D3">
-        <v>1.871273001602413</v>
+        <v>4.633463163272279</v>
       </c>
       <c r="E3">
-        <v>6.553545205937299</v>
+        <v>7.956694878295009</v>
       </c>
       <c r="F3">
-        <v>42.57172449598844</v>
+        <v>27.77174433932786</v>
       </c>
       <c r="G3">
-        <v>2.168138143222279</v>
+        <v>2.147520818685386</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.533812342270235</v>
+        <v>6.501286683082422</v>
       </c>
       <c r="K3">
-        <v>13.43509755844608</v>
+        <v>9.736489728109362</v>
       </c>
       <c r="L3">
-        <v>6.135361024721949</v>
+        <v>6.121213258488109</v>
       </c>
       <c r="M3">
-        <v>11.61407555193875</v>
+        <v>9.479248811183016</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>32.73658490688851</v>
+        <v>21.27920971332334</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.72407649286846</v>
+        <v>11.68007568034026</v>
       </c>
       <c r="C4">
-        <v>8.228140504487312</v>
+        <v>7.408004449297194</v>
       </c>
       <c r="D4">
-        <v>1.84487154379869</v>
+        <v>4.54921540088565</v>
       </c>
       <c r="E4">
-        <v>6.567545416582818</v>
+        <v>7.967809395553793</v>
       </c>
       <c r="F4">
-        <v>41.97023862800889</v>
+        <v>27.76858991333808</v>
       </c>
       <c r="G4">
-        <v>2.174235970310328</v>
+        <v>2.150706519057508</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.556584156861188</v>
+        <v>6.53379649894446</v>
       </c>
       <c r="K4">
-        <v>12.94459210493443</v>
+        <v>9.34761848033423</v>
       </c>
       <c r="L4">
-        <v>6.119743139257489</v>
+        <v>6.085679576248744</v>
       </c>
       <c r="M4">
-        <v>11.41864871071091</v>
+        <v>9.30947939778496</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>32.31667930291526</v>
+        <v>21.3449748311358</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.46474467197886</v>
+        <v>11.47563138202882</v>
       </c>
       <c r="C5">
-        <v>8.077803653443823</v>
+        <v>7.401232516581531</v>
       </c>
       <c r="D5">
-        <v>1.834213181099855</v>
+        <v>4.514817392195685</v>
       </c>
       <c r="E5">
-        <v>6.573478870751264</v>
+        <v>7.973001844769284</v>
       </c>
       <c r="F5">
-        <v>41.72964907969829</v>
+        <v>27.77167808541336</v>
       </c>
       <c r="G5">
-        <v>2.176760952809699</v>
+        <v>2.152030380585432</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.566046739095908</v>
+        <v>6.547319253840089</v>
       </c>
       <c r="K5">
-        <v>12.74185329055509</v>
+        <v>9.184272685957559</v>
       </c>
       <c r="L5">
-        <v>6.114064772467793</v>
+        <v>6.071618428059825</v>
       </c>
       <c r="M5">
-        <v>11.33998023054643</v>
+        <v>9.240206693278648</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>32.14926612094411</v>
+        <v>21.37488489700751</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.42147403751244</v>
+        <v>11.44137640274829</v>
       </c>
       <c r="C6">
-        <v>8.052592164668368</v>
+        <v>7.400114439252309</v>
       </c>
       <c r="D6">
-        <v>1.832449086472481</v>
+        <v>4.509103086963007</v>
       </c>
       <c r="E6">
-        <v>6.574477838387213</v>
+        <v>7.973903812016797</v>
       </c>
       <c r="F6">
-        <v>41.68997413842446</v>
+        <v>27.77245125394362</v>
       </c>
       <c r="G6">
-        <v>2.177182697715262</v>
+        <v>2.152251771378471</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.567629145072308</v>
+        <v>6.549581395714389</v>
       </c>
       <c r="K6">
-        <v>12.70802374751247</v>
+        <v>9.156855989204201</v>
       </c>
       <c r="L6">
-        <v>6.11316299627693</v>
+        <v>6.069309086744068</v>
       </c>
       <c r="M6">
-        <v>11.32697840737678</v>
+        <v>9.228701431653212</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>32.12169098168859</v>
+        <v>21.38003627564777</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.7205932682259</v>
+        <v>11.67733918049265</v>
       </c>
       <c r="C7">
-        <v>8.226129643792234</v>
+        <v>7.407912691090504</v>
       </c>
       <c r="D7">
-        <v>1.844727410575271</v>
+        <v>4.548751700095114</v>
       </c>
       <c r="E7">
-        <v>6.567624515947291</v>
+        <v>7.967876750604655</v>
       </c>
       <c r="F7">
-        <v>41.96697557019827</v>
+        <v>27.76861402315915</v>
       </c>
       <c r="G7">
-        <v>2.174269858437475</v>
+        <v>2.150724268544521</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.556711027254108</v>
+        <v>6.53397775435688</v>
       </c>
       <c r="K7">
-        <v>12.94186912446333</v>
+        <v>9.345435232706581</v>
       </c>
       <c r="L7">
-        <v>6.119663795603588</v>
+        <v>6.085488237089436</v>
       </c>
       <c r="M7">
-        <v>11.4175837235557</v>
+        <v>9.308545398321275</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>32.314406516138</v>
+        <v>21.34536575211739</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.0080252525278</v>
+        <v>12.67280637738048</v>
       </c>
       <c r="C8">
-        <v>8.955906459023264</v>
+        <v>7.443262589833852</v>
       </c>
       <c r="D8">
-        <v>1.899824363821051</v>
+        <v>4.722999332852384</v>
       </c>
       <c r="E8">
-        <v>6.539392508269031</v>
+        <v>7.947129664512723</v>
       </c>
       <c r="F8">
-        <v>43.22885195335876</v>
+        <v>27.79042101121201</v>
       </c>
       <c r="G8">
-        <v>2.161762816977789</v>
+        <v>2.14420766067079</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.510127322948764</v>
+        <v>6.467524525101016</v>
       </c>
       <c r="K8">
-        <v>13.94811925841491</v>
+        <v>10.13467184059923</v>
       </c>
       <c r="L8">
-        <v>6.15440273236344</v>
+        <v>6.160544463491043</v>
       </c>
       <c r="M8">
-        <v>11.82569617045197</v>
+        <v>9.659830999675208</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>33.19730223785447</v>
+        <v>21.21995858272674</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.40026897825945</v>
+        <v>14.4523001835829</v>
       </c>
       <c r="C9">
-        <v>10.25927572384045</v>
+        <v>7.516048114861968</v>
       </c>
       <c r="D9">
-        <v>2.012077374484499</v>
+        <v>5.059102647221397</v>
       </c>
       <c r="E9">
-        <v>6.491432127726643</v>
+        <v>7.928138956065702</v>
       </c>
       <c r="F9">
-        <v>45.8420153511768</v>
+        <v>27.9808171515667</v>
       </c>
       <c r="G9">
-        <v>2.138347005975002</v>
+        <v>2.132197812193683</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.424246894314033</v>
+        <v>6.345591604379537</v>
       </c>
       <c r="K9">
-        <v>15.94844889192277</v>
+        <v>11.52634701372448</v>
       </c>
       <c r="L9">
-        <v>6.245015145497535</v>
+        <v>6.320411706271302</v>
       </c>
       <c r="M9">
-        <v>12.65070326880885</v>
+        <v>10.33898315877885</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>35.04530450433634</v>
+        <v>21.08033256188667</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.06873182587229</v>
+        <v>15.64990999573059</v>
       </c>
       <c r="C10">
-        <v>11.14174087277727</v>
+        <v>7.571746765500577</v>
       </c>
       <c r="D10">
-        <v>2.098133961055527</v>
+        <v>5.30022268622104</v>
       </c>
       <c r="E10">
-        <v>6.460913936533198</v>
+        <v>7.928044219095058</v>
       </c>
       <c r="F10">
-        <v>47.84486504989113</v>
+        <v>28.21817342609415</v>
       </c>
       <c r="G10">
-        <v>2.121677391807454</v>
+        <v>2.123807312495165</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.364210393796641</v>
+        <v>6.260867486611386</v>
       </c>
       <c r="K10">
-        <v>17.49681970422663</v>
+        <v>12.45318790520002</v>
       </c>
       <c r="L10">
-        <v>6.32600478429491</v>
+        <v>6.445140131141665</v>
       </c>
       <c r="M10">
-        <v>13.26808518834903</v>
+        <v>10.8273160620075</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>36.47498339364288</v>
+        <v>21.04940013741461</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.8076955812071</v>
+        <v>16.2099426807366</v>
       </c>
       <c r="C11">
-        <v>11.52771494340635</v>
+        <v>7.597597130470128</v>
       </c>
       <c r="D11">
-        <v>2.138329659481865</v>
+        <v>5.408216107978447</v>
       </c>
       <c r="E11">
-        <v>6.448111753609702</v>
+        <v>7.931149003947412</v>
       </c>
       <c r="F11">
-        <v>48.77421959509849</v>
+        <v>28.34885699010794</v>
       </c>
       <c r="G11">
-        <v>2.11417426817381</v>
+        <v>2.120075948580491</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.337495902641001</v>
+        <v>6.223322708367217</v>
       </c>
       <c r="K11">
-        <v>18.17141073441619</v>
+        <v>12.85413297610675</v>
       </c>
       <c r="L11">
-        <v>6.366142342415499</v>
+        <v>6.503359976590081</v>
       </c>
       <c r="M11">
-        <v>13.55080422088298</v>
+        <v>11.0463076014072</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>37.14151825200985</v>
+        <v>21.05241843057583</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.08464355699773</v>
+        <v>16.41906329059369</v>
       </c>
       <c r="C12">
-        <v>11.67173309280548</v>
+        <v>7.607462335864752</v>
       </c>
       <c r="D12">
-        <v>2.153727562309316</v>
+        <v>5.448835592531358</v>
       </c>
       <c r="E12">
-        <v>6.44342511533852</v>
+        <v>7.932788942257346</v>
       </c>
       <c r="F12">
-        <v>49.12882556325657</v>
+        <v>28.40173028489353</v>
       </c>
       <c r="G12">
-        <v>2.111341208413565</v>
+        <v>2.118674548441599</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.327459555838817</v>
+        <v>6.209244009580895</v>
       </c>
       <c r="K12">
-        <v>18.42273185100045</v>
+        <v>13.00299972152447</v>
       </c>
       <c r="L12">
-        <v>6.381829619164622</v>
+        <v>6.525610404759485</v>
       </c>
       <c r="M12">
-        <v>13.65809954428489</v>
+        <v>11.12871934420608</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>37.39631366388746</v>
+        <v>21.05614884828696</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.02512556534975</v>
+        <v>16.37422141406207</v>
       </c>
       <c r="C13">
-        <v>11.64081002612547</v>
+        <v>7.605334253677077</v>
       </c>
       <c r="D13">
-        <v>2.15040303762792</v>
+        <v>5.440100168868132</v>
       </c>
       <c r="E13">
-        <v>6.444427190171464</v>
+        <v>7.932414919337935</v>
       </c>
       <c r="F13">
-        <v>49.05233427811038</v>
+        <v>28.3901905794339</v>
       </c>
       <c r="G13">
-        <v>2.111951049629721</v>
+        <v>2.118975861509221</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.329617611253973</v>
+        <v>6.212270016512728</v>
       </c>
       <c r="K13">
-        <v>18.36878657840384</v>
+        <v>12.9710701219792</v>
       </c>
       <c r="L13">
-        <v>6.378429135587814</v>
+        <v>6.520809452966706</v>
       </c>
       <c r="M13">
-        <v>13.63498145236429</v>
+        <v>11.11099434040151</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>37.34133105336666</v>
+        <v>21.05522825696296</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.83053785949648</v>
+        <v>16.22723555106283</v>
       </c>
       <c r="C14">
-        <v>11.53960581462627</v>
+        <v>7.598407203582466</v>
       </c>
       <c r="D14">
-        <v>2.139592751576274</v>
+        <v>5.411563583085981</v>
       </c>
       <c r="E14">
-        <v>6.44772291183865</v>
+        <v>7.931274551937788</v>
       </c>
       <c r="F14">
-        <v>48.80333905973641</v>
+        <v>28.35313836128189</v>
       </c>
       <c r="G14">
-        <v>2.113941046223907</v>
+        <v>2.119960426563815</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.33666864180618</v>
+        <v>6.222161692883486</v>
       </c>
       <c r="K14">
-        <v>18.19216897390056</v>
+        <v>12.86643962057192</v>
       </c>
       <c r="L14">
-        <v>6.367423076345494</v>
+        <v>6.50518649857008</v>
       </c>
       <c r="M14">
-        <v>13.55962688114228</v>
+        <v>11.05309832722242</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>37.16243195922312</v>
+        <v>21.05267272271105</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.71097272005699</v>
+        <v>16.13662770411618</v>
       </c>
       <c r="C15">
-        <v>11.47733902792816</v>
+        <v>7.594174192751645</v>
       </c>
       <c r="D15">
-        <v>2.132994979997362</v>
+        <v>5.394047371794543</v>
       </c>
       <c r="E15">
-        <v>6.449762829547742</v>
+        <v>7.93063684638083</v>
       </c>
       <c r="F15">
-        <v>48.65117367297847</v>
+        <v>28.33088733110048</v>
       </c>
       <c r="G15">
-        <v>2.115160942066513</v>
+        <v>2.120564988151269</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.340997815933846</v>
+        <v>6.228238551823821</v>
       </c>
       <c r="K15">
-        <v>18.08345218674524</v>
+        <v>12.8019650479042</v>
       </c>
       <c r="L15">
-        <v>6.360745552034549</v>
+        <v>6.495643268542207</v>
       </c>
       <c r="M15">
-        <v>13.51350001489871</v>
+        <v>11.0175664874164</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>37.05316531213321</v>
+        <v>21.05144825596016</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.02003463916862</v>
+        <v>15.61540430323757</v>
       </c>
       <c r="C16">
-        <v>11.11621209299154</v>
+        <v>7.570067907948527</v>
       </c>
       <c r="D16">
-        <v>2.095530303174974</v>
+        <v>5.293128185124232</v>
       </c>
       <c r="E16">
-        <v>6.461772815520478</v>
+        <v>7.927905641149071</v>
       </c>
       <c r="F16">
-        <v>47.78450049052174</v>
+        <v>28.21010030204425</v>
       </c>
       <c r="G16">
-        <v>2.12216907461872</v>
+        <v>2.124052826921737</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.365967756626858</v>
+        <v>6.26334079046927</v>
       </c>
       <c r="K16">
-        <v>17.45214693756747</v>
+        <v>12.42656990781801</v>
       </c>
       <c r="L16">
-        <v>6.323449191691529</v>
+        <v>6.441364339154894</v>
       </c>
       <c r="M16">
-        <v>13.2496432796753</v>
+        <v>10.81293550788857</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>36.43175424760669</v>
+        <v>21.04955781562658</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.59102151590611</v>
+        <v>15.31028140819669</v>
       </c>
       <c r="C17">
-        <v>10.89076599953891</v>
+        <v>7.555412494975219</v>
       </c>
       <c r="D17">
-        <v>2.07283271486342</v>
+        <v>5.230760022041896</v>
       </c>
       <c r="E17">
-        <v>6.469421224640764</v>
+        <v>7.927044544951971</v>
       </c>
       <c r="F17">
-        <v>47.25752429010745</v>
+        <v>28.14190457650245</v>
       </c>
       <c r="G17">
-        <v>2.126486587869218</v>
+        <v>2.126213913412005</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.381434720006431</v>
+        <v>6.285126913252026</v>
       </c>
       <c r="K17">
-        <v>17.05733806769498</v>
+        <v>12.19098679434097</v>
       </c>
       <c r="L17">
-        <v>6.301422742132721</v>
+        <v>6.408438642088031</v>
       </c>
       <c r="M17">
-        <v>13.08822622632178</v>
+        <v>10.68654671123971</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>36.05471873620413</v>
+        <v>21.05286669548157</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.34237656038928</v>
+        <v>15.13249290972158</v>
       </c>
       <c r="C18">
-        <v>10.75963419186266</v>
+        <v>7.547031185855232</v>
       </c>
       <c r="D18">
-        <v>2.059874560335883</v>
+        <v>5.194729783384808</v>
       </c>
       <c r="E18">
-        <v>6.473921703324721</v>
+        <v>7.926844855493631</v>
       </c>
       <c r="F18">
-        <v>46.95613337197233</v>
+        <v>28.10481065903839</v>
       </c>
       <c r="G18">
-        <v>2.128977650857574</v>
+        <v>2.127465007418551</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.390387429383275</v>
+        <v>6.297751811955451</v>
       </c>
       <c r="K18">
-        <v>16.82744251281081</v>
+        <v>12.05353810442406</v>
       </c>
       <c r="L18">
-        <v>6.289062931175635</v>
+        <v>6.389640517507623</v>
       </c>
       <c r="M18">
-        <v>12.99556040747032</v>
+        <v>10.61355762334285</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>35.83937384553602</v>
+        <v>21.05637046790722</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.25786616814112</v>
+        <v>15.07190446083181</v>
       </c>
       <c r="C19">
-        <v>10.71498196982934</v>
+        <v>7.544201608234251</v>
       </c>
       <c r="D19">
-        <v>2.055503062506233</v>
+        <v>5.182504505493459</v>
       </c>
       <c r="E19">
-        <v>6.475462725756954</v>
+        <v>7.926827663041062</v>
       </c>
       <c r="F19">
-        <v>46.85438061348196</v>
+        <v>28.09261347515426</v>
       </c>
       <c r="G19">
-        <v>2.129822506475426</v>
+        <v>2.127890017510125</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.393428542125877</v>
+        <v>6.302042684737125</v>
       </c>
       <c r="K19">
-        <v>16.7491165746213</v>
+        <v>12.00666560389333</v>
       </c>
       <c r="L19">
-        <v>6.284930807046056</v>
+        <v>6.383300094780312</v>
       </c>
       <c r="M19">
-        <v>12.96421700216625</v>
+        <v>10.58879636484867</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>35.76672053508189</v>
+        <v>21.05782777613786</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.63688624323153</v>
+        <v>15.3429994747546</v>
       </c>
       <c r="C20">
-        <v>10.91491579511514</v>
+        <v>7.556967593775968</v>
       </c>
       <c r="D20">
-        <v>2.075238707037851</v>
+        <v>5.237415785253608</v>
       </c>
       <c r="E20">
-        <v>6.46859651314544</v>
+        <v>7.927105534555859</v>
       </c>
       <c r="F20">
-        <v>47.3134443738709</v>
+        <v>28.14894274908984</v>
       </c>
       <c r="G20">
-        <v>2.126026202484574</v>
+        <v>2.125983029358586</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.379782426774182</v>
+        <v>6.28279803747607</v>
       </c>
       <c r="K20">
-        <v>17.09965613806673</v>
+        <v>12.21626651576494</v>
       </c>
       <c r="L20">
-        <v>6.303735393139808</v>
+        <v>6.411929229064333</v>
       </c>
       <c r="M20">
-        <v>13.10539131511303</v>
+        <v>10.70003187459525</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>36.09469751470055</v>
+        <v>21.05234787220845</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.88777098228828</v>
+        <v>16.27052854919801</v>
       </c>
       <c r="C21">
-        <v>11.56938935798331</v>
+        <v>7.600439755668289</v>
       </c>
       <c r="D21">
-        <v>2.142762974545102</v>
+        <v>5.419953175686739</v>
       </c>
       <c r="E21">
-        <v>6.446750450005312</v>
+        <v>7.93159681338641</v>
       </c>
       <c r="F21">
-        <v>48.8764016010911</v>
+        <v>28.36392864645403</v>
       </c>
       <c r="G21">
-        <v>2.113356341170887</v>
+        <v>2.119670927369301</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.334595465883229</v>
+        <v>6.219252541451101</v>
       </c>
       <c r="K21">
-        <v>18.24415671862442</v>
+        <v>12.89725241793516</v>
       </c>
       <c r="L21">
-        <v>6.370642456809322</v>
+        <v>6.509769877946421</v>
       </c>
       <c r="M21">
-        <v>13.58175413371018</v>
+        <v>11.07011824025586</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>37.21491331099446</v>
+        <v>21.05335207162037</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.69913866893401</v>
+        <v>16.8710320847345</v>
       </c>
       <c r="C22">
-        <v>11.98468868514597</v>
+        <v>7.629297067412548</v>
       </c>
       <c r="D22">
-        <v>2.187938587157825</v>
+        <v>5.537635282531232</v>
       </c>
       <c r="E22">
-        <v>6.433416257417162</v>
+        <v>7.937243497870392</v>
       </c>
       <c r="F22">
-        <v>49.91356291163973</v>
+        <v>28.52422603188667</v>
       </c>
       <c r="G22">
-        <v>2.105121913474147</v>
+        <v>2.115612776684529</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.30552546252407</v>
+        <v>6.178528013881253</v>
       </c>
       <c r="K22">
-        <v>18.96815092110247</v>
+        <v>13.32505766989175</v>
       </c>
       <c r="L22">
-        <v>6.417222515247821</v>
+        <v>6.574898487935782</v>
       </c>
       <c r="M22">
-        <v>13.8944549032296</v>
+        <v>11.30896232176812</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>37.9610434610801</v>
+        <v>21.06915244323005</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.26267341152638</v>
+        <v>16.55287272393679</v>
       </c>
       <c r="C23">
-        <v>11.7641431624058</v>
+        <v>7.613853681379504</v>
       </c>
       <c r="D23">
-        <v>2.163722347184161</v>
+        <v>5.474983575430826</v>
       </c>
       <c r="E23">
-        <v>6.440444435227488</v>
+        <v>7.933977788147538</v>
       </c>
       <c r="F23">
-        <v>49.35854530837829</v>
+        <v>28.43682224212857</v>
       </c>
       <c r="G23">
-        <v>2.109513751847798</v>
+        <v>2.117772788038852</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.32100046916811</v>
+        <v>6.200191278571167</v>
       </c>
       <c r="K23">
-        <v>18.58388450952924</v>
+        <v>13.09830397105005</v>
       </c>
       <c r="L23">
-        <v>6.392095784224374</v>
+        <v>6.54003270551166</v>
       </c>
       <c r="M23">
-        <v>13.7274420948383</v>
+        <v>11.18178242576466</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>37.56150732816015</v>
+        <v>21.05929009238936</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.61615702765095</v>
+        <v>15.32821501466722</v>
       </c>
       <c r="C24">
-        <v>10.90400241253547</v>
+        <v>7.556264395860976</v>
       </c>
       <c r="D24">
-        <v>2.074150676467517</v>
+        <v>5.234407254069174</v>
       </c>
       <c r="E24">
-        <v>6.46896904386554</v>
+        <v>7.927077042028572</v>
       </c>
       <c r="F24">
-        <v>47.28815800267011</v>
+        <v>28.14575421981062</v>
       </c>
       <c r="G24">
-        <v>2.126234314854278</v>
+        <v>2.126087385022709</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.380529239517112</v>
+        <v>6.283850611116501</v>
       </c>
       <c r="K24">
-        <v>17.08053322809675</v>
+        <v>12.20484381152248</v>
       </c>
       <c r="L24">
-        <v>6.302688899379413</v>
+        <v>6.410350725042985</v>
       </c>
       <c r="M24">
-        <v>13.09763055528565</v>
+        <v>10.69393624436964</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>36.07661869739836</v>
+        <v>21.05257745384901</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.76834931824872</v>
+        <v>13.9899402214503</v>
       </c>
       <c r="C25">
-        <v>9.920113194679827</v>
+        <v>7.495976094099806</v>
       </c>
       <c r="D25">
-        <v>1.981162010360662</v>
+        <v>4.969038635656193</v>
       </c>
       <c r="E25">
-        <v>6.503594989214384</v>
+        <v>7.930889114392094</v>
       </c>
       <c r="F25">
-        <v>45.1204768553234</v>
+        <v>27.91272210130063</v>
       </c>
       <c r="G25">
-        <v>2.144576689556134</v>
+        <v>2.135368030410539</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.446921346167633</v>
+        <v>6.377705625163232</v>
       </c>
       <c r="K25">
-        <v>15.35093668865072</v>
+        <v>11.16665172540555</v>
       </c>
       <c r="L25">
-        <v>6.218022725128187</v>
+        <v>6.275851592502518</v>
       </c>
       <c r="M25">
-        <v>12.42530139366302</v>
+        <v>10.15680851747719</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>34.53283988059812</v>
+        <v>21.10602966638933</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_1/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_1/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.93107323408403</v>
+        <v>25.29996711258983</v>
       </c>
       <c r="C2">
-        <v>7.453071406243063</v>
+        <v>18.71228480845788</v>
       </c>
       <c r="D2">
-        <v>4.769930303539038</v>
+        <v>3.712146929608842</v>
       </c>
       <c r="E2">
-        <v>7.942953177859052</v>
+        <v>30.09909619486762</v>
       </c>
       <c r="F2">
-        <v>27.8060364655407</v>
+        <v>17.2999510047735</v>
       </c>
       <c r="G2">
-        <v>2.142495306770606</v>
+        <v>2.043908991758983</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.450095218101611</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>10.33799800390087</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>6.181755303238075</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>9.754545003875762</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>21.1929256731532</v>
+        <v>12.85740437499542</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.16908481286198</v>
+        <v>23.62815818503517</v>
       </c>
       <c r="C3">
-        <v>7.424883618166475</v>
+        <v>17.57199810504744</v>
       </c>
       <c r="D3">
-        <v>4.633463163272279</v>
+        <v>3.59749845654561</v>
       </c>
       <c r="E3">
-        <v>7.956694878295009</v>
+        <v>27.88810281571637</v>
       </c>
       <c r="F3">
-        <v>27.77174433932786</v>
+        <v>16.59918913251503</v>
       </c>
       <c r="G3">
-        <v>2.147520818685386</v>
+        <v>2.051043767845687</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.501286683082422</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>9.736489728109362</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>6.121213258488109</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>9.479248811183016</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>21.27920971332334</v>
+        <v>12.58751217609845</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.68007568034026</v>
+        <v>22.54360327761603</v>
       </c>
       <c r="C4">
-        <v>7.408004449297194</v>
+        <v>16.83526365874923</v>
       </c>
       <c r="D4">
-        <v>4.54921540088565</v>
+        <v>3.525577805703337</v>
       </c>
       <c r="E4">
-        <v>7.967809395553793</v>
+        <v>26.46895975988461</v>
       </c>
       <c r="F4">
-        <v>27.76858991333808</v>
+        <v>16.18963647903525</v>
       </c>
       <c r="G4">
-        <v>2.150706519057508</v>
+        <v>2.055526369339699</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.53379649894446</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>9.34761848033423</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>6.085679576248744</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>9.30947939778496</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>21.3449748311358</v>
+        <v>12.44897348634379</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.47563138202882</v>
+        <v>22.08694938015424</v>
       </c>
       <c r="C5">
-        <v>7.401232516581531</v>
+        <v>16.52587764114491</v>
       </c>
       <c r="D5">
-        <v>4.514817392195685</v>
+        <v>3.495912843721082</v>
       </c>
       <c r="E5">
-        <v>7.973001844769284</v>
+        <v>25.87476459299186</v>
       </c>
       <c r="F5">
-        <v>27.77167808541336</v>
+        <v>16.02808891136405</v>
       </c>
       <c r="G5">
-        <v>2.152030380585432</v>
+        <v>2.057380137012188</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.547319253840089</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>9.184272685957559</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>6.071618428059825</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>9.240206693278648</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>21.37488489700751</v>
+        <v>12.39910515610754</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.44137640274829</v>
+        <v>22.01023280990493</v>
       </c>
       <c r="C6">
-        <v>7.400114439252309</v>
+        <v>16.47395282490028</v>
       </c>
       <c r="D6">
-        <v>4.509103086963007</v>
+        <v>3.490966312316485</v>
       </c>
       <c r="E6">
-        <v>7.973903812016797</v>
+        <v>25.77512858479972</v>
       </c>
       <c r="F6">
-        <v>27.77245125394362</v>
+        <v>16.00159092923039</v>
       </c>
       <c r="G6">
-        <v>2.152251771378471</v>
+        <v>2.057689629649815</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.549581395714389</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>9.156855989204201</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>6.069309086744068</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>9.228701431653212</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>21.38003627564777</v>
+        <v>12.39121446165234</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.67733918049265</v>
+        <v>22.53750426788429</v>
       </c>
       <c r="C7">
-        <v>7.407912691090504</v>
+        <v>16.83112818660624</v>
       </c>
       <c r="D7">
-        <v>4.548751700095114</v>
+        <v>3.525179139713713</v>
       </c>
       <c r="E7">
-        <v>7.967876750604655</v>
+        <v>26.46101104974448</v>
       </c>
       <c r="F7">
-        <v>27.76861402315915</v>
+        <v>16.18743596040851</v>
       </c>
       <c r="G7">
-        <v>2.150724268544521</v>
+        <v>2.055551258425103</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.53397775435688</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>9.345435232706581</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>6.085488237089436</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>9.308545398321275</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>21.34536575211739</v>
+        <v>12.44827462669668</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.67280637738048</v>
+        <v>24.73551876822907</v>
       </c>
       <c r="C8">
-        <v>7.443262589833852</v>
+        <v>18.32672470576468</v>
       </c>
       <c r="D8">
-        <v>4.722999332852384</v>
+        <v>3.672947966651937</v>
       </c>
       <c r="E8">
-        <v>7.947129664512723</v>
+        <v>29.34927899219528</v>
       </c>
       <c r="F8">
-        <v>27.79042101121201</v>
+        <v>17.05411325291634</v>
       </c>
       <c r="G8">
-        <v>2.14420766067079</v>
+        <v>2.046348848654694</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.467524525101016</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>10.13467184059923</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>6.160544463491043</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>9.659830999675208</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>21.21995858272674</v>
+        <v>12.75856900286794</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.4523001835829</v>
+        <v>28.58992846810313</v>
       </c>
       <c r="C9">
-        <v>7.516048114861968</v>
+        <v>20.96886708758744</v>
       </c>
       <c r="D9">
-        <v>5.059102647221397</v>
+        <v>3.949617738405444</v>
       </c>
       <c r="E9">
-        <v>7.928138956065702</v>
+        <v>34.54416360005666</v>
       </c>
       <c r="F9">
-        <v>27.9808171515667</v>
+        <v>18.91209816875172</v>
       </c>
       <c r="G9">
-        <v>2.132197812193683</v>
+        <v>2.029038174210597</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.345591604379537</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>11.52634701372448</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>6.320411706271302</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>10.33898315877885</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>21.08033256188667</v>
+        <v>13.5917046794574</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.64990999573059</v>
+        <v>31.1514239417783</v>
       </c>
       <c r="C10">
-        <v>7.571746765500577</v>
+        <v>22.73412734669459</v>
       </c>
       <c r="D10">
-        <v>5.30022268622104</v>
+        <v>4.143847419069983</v>
       </c>
       <c r="E10">
-        <v>7.928044219095058</v>
+        <v>38.10541674315342</v>
       </c>
       <c r="F10">
-        <v>28.21817342609415</v>
+        <v>20.38886581392279</v>
       </c>
       <c r="G10">
-        <v>2.123807312495165</v>
+        <v>2.016655865023571</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.260867486611386</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>12.45318790520002</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>6.445140131141665</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>10.8273160620075</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>21.04940013741461</v>
+        <v>14.35070574762169</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.2099426807366</v>
+        <v>32.25993359089109</v>
       </c>
       <c r="C11">
-        <v>7.597597130470128</v>
+        <v>23.49970860925279</v>
       </c>
       <c r="D11">
-        <v>5.408216107978447</v>
+        <v>4.230104353320488</v>
       </c>
       <c r="E11">
-        <v>7.931149003947412</v>
+        <v>39.67789339784362</v>
       </c>
       <c r="F11">
-        <v>28.34885699010794</v>
+        <v>21.22734920633512</v>
       </c>
       <c r="G11">
-        <v>2.120075948580491</v>
+        <v>2.011067233912696</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.223322708367217</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>12.85413297610675</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>6.503359976590081</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>11.0463076014072</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>21.05241843057583</v>
+        <v>14.87826780171814</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.41906329059369</v>
+        <v>32.67171679903262</v>
       </c>
       <c r="C12">
-        <v>7.607462335864752</v>
+        <v>23.7843128832263</v>
       </c>
       <c r="D12">
-        <v>5.448835592531358</v>
+        <v>4.262459450767984</v>
       </c>
       <c r="E12">
-        <v>7.932788942257346</v>
+        <v>40.26726686840232</v>
       </c>
       <c r="F12">
-        <v>28.40173028489353</v>
+        <v>21.54455073492708</v>
       </c>
       <c r="G12">
-        <v>2.118674548441599</v>
+        <v>2.008954605754061</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.209244009580895</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>13.00299972152447</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>6.525610404759485</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>11.12871934420608</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>21.05614884828696</v>
+        <v>15.11967569243916</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.37422141406207</v>
+        <v>32.58338413468093</v>
       </c>
       <c r="C13">
-        <v>7.605334253677077</v>
+        <v>23.72325271567976</v>
       </c>
       <c r="D13">
-        <v>5.440100168868132</v>
+        <v>4.2555049839369</v>
       </c>
       <c r="E13">
-        <v>7.932414919337935</v>
+        <v>40.14059250483037</v>
       </c>
       <c r="F13">
-        <v>28.3901905794339</v>
+        <v>21.47624739385646</v>
       </c>
       <c r="G13">
-        <v>2.118975861509221</v>
+        <v>2.009409481375923</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.212270016512728</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>12.9710701219792</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>6.520809452966706</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>11.11099434040151</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>21.05522825696296</v>
+        <v>15.06767213539621</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.22723555106283</v>
+        <v>32.29397023183071</v>
       </c>
       <c r="C14">
-        <v>7.598407203582466</v>
+        <v>23.52322896401708</v>
       </c>
       <c r="D14">
-        <v>5.411563583085981</v>
+        <v>4.23277243299895</v>
       </c>
       <c r="E14">
-        <v>7.931274551937788</v>
+        <v>39.72649888003885</v>
       </c>
       <c r="F14">
-        <v>28.35313836128189</v>
+        <v>21.25345106127962</v>
       </c>
       <c r="G14">
-        <v>2.119960426563815</v>
+        <v>2.010893369838846</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.222161692883486</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>12.86643962057192</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>6.50518649857008</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>11.05309832722242</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>21.05267272271105</v>
+        <v>14.89812336330238</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.13662770411618</v>
+        <v>32.11566134438054</v>
       </c>
       <c r="C15">
-        <v>7.594174192751645</v>
+        <v>23.4000205008293</v>
       </c>
       <c r="D15">
-        <v>5.394047371794543</v>
+        <v>4.218807784540204</v>
       </c>
       <c r="E15">
-        <v>7.93063684638083</v>
+        <v>39.4720855897196</v>
       </c>
       <c r="F15">
-        <v>28.33088733110048</v>
+        <v>21.11694501275388</v>
       </c>
       <c r="G15">
-        <v>2.120564988151269</v>
+        <v>2.011802686326441</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.228238551823821</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>12.8019650479042</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>6.495643268542207</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>11.0175664874164</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>21.05144825596016</v>
+        <v>14.79430259681137</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.61540430323757</v>
+        <v>31.07785302841312</v>
       </c>
       <c r="C16">
-        <v>7.570067907948527</v>
+        <v>22.68334771287208</v>
       </c>
       <c r="D16">
-        <v>5.293128185124232</v>
+        <v>4.138167417121538</v>
       </c>
       <c r="E16">
-        <v>7.927905641149071</v>
+        <v>38.00175647449707</v>
       </c>
       <c r="F16">
-        <v>28.21010030204425</v>
+        <v>20.33401832548837</v>
       </c>
       <c r="G16">
-        <v>2.124052826921737</v>
+        <v>2.01702176164178</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.26334079046927</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>12.42656990781801</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>6.441364339154894</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>10.81293550788857</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>21.04955781562658</v>
+        <v>14.32663367291853</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.31028140819669</v>
+        <v>30.42677885381245</v>
       </c>
       <c r="C17">
-        <v>7.555412494975219</v>
+        <v>22.23415244515487</v>
       </c>
       <c r="D17">
-        <v>5.230760022041896</v>
+        <v>4.088153425241781</v>
       </c>
       <c r="E17">
-        <v>7.927044544951971</v>
+        <v>37.08807866683508</v>
       </c>
       <c r="F17">
-        <v>28.14190457650245</v>
+        <v>19.93861965021826</v>
       </c>
       <c r="G17">
-        <v>2.126213913412005</v>
+        <v>2.020232994310831</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.285126913252026</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>12.19098679434097</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>6.408438642088031</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>10.68654671123971</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>21.05286669548157</v>
+        <v>14.11944004746706</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.13249290972158</v>
+        <v>30.046947438029</v>
       </c>
       <c r="C18">
-        <v>7.547031185855232</v>
+        <v>21.97225679478444</v>
       </c>
       <c r="D18">
-        <v>5.194729783384808</v>
+        <v>4.059189256481922</v>
       </c>
       <c r="E18">
-        <v>7.926844855493631</v>
+        <v>36.55802883949858</v>
       </c>
       <c r="F18">
-        <v>28.10481065903839</v>
+        <v>19.71922768052412</v>
       </c>
       <c r="G18">
-        <v>2.127465007418551</v>
+        <v>2.022084344121928</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.297751811955451</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>12.05353810442406</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>6.389640517507623</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>10.61355762334285</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>21.05637046790722</v>
+        <v>14.00341954567534</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.07190446083181</v>
+        <v>29.91741909144875</v>
       </c>
       <c r="C19">
-        <v>7.544201608234251</v>
+        <v>21.88297495701926</v>
       </c>
       <c r="D19">
-        <v>5.182504505493459</v>
+        <v>4.049348848841772</v>
       </c>
       <c r="E19">
-        <v>7.926827663041062</v>
+        <v>36.37776445352535</v>
       </c>
       <c r="F19">
-        <v>28.09261347515426</v>
+        <v>19.64525149608282</v>
       </c>
       <c r="G19">
-        <v>2.127890017510125</v>
+        <v>2.022712000138848</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.302042684737125</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>12.00666560389333</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>6.383300094780312</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>10.58879636484867</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>21.05782777613786</v>
+        <v>13.96467469230429</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.3429994747546</v>
+        <v>30.49663940566342</v>
       </c>
       <c r="C20">
-        <v>7.556967593775968</v>
+        <v>22.28233491534761</v>
       </c>
       <c r="D20">
-        <v>5.237415785253608</v>
+        <v>4.093497996693085</v>
       </c>
       <c r="E20">
-        <v>7.927105534555859</v>
+        <v>37.1858046053578</v>
       </c>
       <c r="F20">
-        <v>28.14894274908984</v>
+        <v>19.97936938415224</v>
       </c>
       <c r="G20">
-        <v>2.125983029358586</v>
+        <v>2.019890722975315</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.28279803747607</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>12.21626651576494</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>6.411929229064333</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>10.70003187459525</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>21.05234787220845</v>
+        <v>14.1411691038638</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.27052854919801</v>
+        <v>32.37919336988499</v>
       </c>
       <c r="C21">
-        <v>7.600439755668289</v>
+        <v>23.58212402688103</v>
       </c>
       <c r="D21">
-        <v>5.419953175686739</v>
+        <v>4.239457939530541</v>
       </c>
       <c r="E21">
-        <v>7.93159681338641</v>
+        <v>39.84828698316163</v>
       </c>
       <c r="F21">
-        <v>28.36392864645403</v>
+        <v>21.3188991544826</v>
       </c>
       <c r="G21">
-        <v>2.119670927369301</v>
+        <v>2.010457439416305</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.219252541451101</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>12.89725241793516</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>6.509769877946421</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>11.07011824025586</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>21.05335207162037</v>
+        <v>14.94791686169386</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.8710320847345</v>
+        <v>33.56309975540136</v>
       </c>
       <c r="C22">
-        <v>7.629297067412548</v>
+        <v>24.40074205320526</v>
       </c>
       <c r="D22">
-        <v>5.537635282531232</v>
+        <v>4.333052850282511</v>
       </c>
       <c r="E22">
-        <v>7.937243497870392</v>
+        <v>41.55330773732182</v>
       </c>
       <c r="F22">
-        <v>28.52422603188667</v>
+        <v>22.24171177571109</v>
       </c>
       <c r="G22">
-        <v>2.115612776684529</v>
+        <v>2.004312106826866</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.178528013881253</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>13.32505766989175</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>6.574898487935782</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>11.30896232176812</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>21.06915244323005</v>
+        <v>15.65111499022666</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.55287272393679</v>
+        <v>32.93541530105217</v>
       </c>
       <c r="C23">
-        <v>7.613853681379504</v>
+        <v>23.96662339225427</v>
       </c>
       <c r="D23">
-        <v>5.474983575430826</v>
+        <v>4.283265111233931</v>
       </c>
       <c r="E23">
-        <v>7.933977788147538</v>
+        <v>40.64623846627671</v>
       </c>
       <c r="F23">
-        <v>28.43682224212857</v>
+        <v>21.74929727521154</v>
       </c>
       <c r="G23">
-        <v>2.117772788038852</v>
+        <v>2.007591146489613</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.200191278571167</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>13.09830397105005</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>6.54003270551166</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>11.18178242576466</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>21.05929009238936</v>
+        <v>15.27563020456801</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.32821501466722</v>
+        <v>30.46507265713345</v>
       </c>
       <c r="C24">
-        <v>7.556264395860976</v>
+        <v>22.26056298690717</v>
       </c>
       <c r="D24">
-        <v>5.234407254069174</v>
+        <v>4.091082370915124</v>
       </c>
       <c r="E24">
-        <v>7.927077042028572</v>
+        <v>37.14163760331674</v>
       </c>
       <c r="F24">
-        <v>28.14575421981062</v>
+        <v>19.96094120223439</v>
       </c>
       <c r="G24">
-        <v>2.126087385022709</v>
+        <v>2.020045447546533</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.283850611116501</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>12.20484381152248</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>6.410350725042985</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>10.69393624436964</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>21.05257745384901</v>
+        <v>14.13133575723807</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.9899402214503</v>
+        <v>27.59528256260786</v>
       </c>
       <c r="C25">
-        <v>7.495976094099806</v>
+        <v>20.28516814104458</v>
       </c>
       <c r="D25">
-        <v>4.969038635656193</v>
+        <v>3.876297461711919</v>
       </c>
       <c r="E25">
-        <v>7.930889114392094</v>
+        <v>33.1860734708765</v>
       </c>
       <c r="F25">
-        <v>27.91272210130063</v>
+        <v>18.39326957451287</v>
       </c>
       <c r="G25">
-        <v>2.135368030410539</v>
+        <v>2.033653362898404</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.377705625163232</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>11.16665172540555</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>6.275851592502518</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>10.15680851747719</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>21.10602966638933</v>
+        <v>13.34113048339287</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_1/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_1/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,34 +415,37 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.29996711258983</v>
+        <v>24.74038215810859</v>
       </c>
       <c r="C2">
-        <v>18.71228480845788</v>
+        <v>19.5636648860633</v>
       </c>
       <c r="D2">
-        <v>3.712146929608842</v>
+        <v>4.030612846141484</v>
       </c>
       <c r="E2">
-        <v>30.09909619486762</v>
+        <v>29.86504473444742</v>
       </c>
       <c r="F2">
-        <v>17.2999510047735</v>
+        <v>17.75518195868449</v>
       </c>
       <c r="G2">
-        <v>2.043908991758983</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>2.057930378311564</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.607045034057078</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -460,36 +463,39 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>12.85740437499542</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>13.55683091514271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.62815818503517</v>
+        <v>23.11024366375046</v>
       </c>
       <c r="C3">
-        <v>17.57199810504744</v>
+        <v>18.41447534527523</v>
       </c>
       <c r="D3">
-        <v>3.59749845654561</v>
+        <v>3.90889586098775</v>
       </c>
       <c r="E3">
-        <v>27.88810281571637</v>
+        <v>27.69026846731998</v>
       </c>
       <c r="F3">
-        <v>16.59918913251503</v>
+        <v>17.14176945398584</v>
       </c>
       <c r="G3">
-        <v>2.051043767845687</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>2.064048891841666</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.368673817656461</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -507,36 +513,39 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>12.58751217609845</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>13.33996087838208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.54360327761603</v>
+        <v>22.05031507671086</v>
       </c>
       <c r="C4">
-        <v>16.83526365874923</v>
+        <v>17.67850506758756</v>
       </c>
       <c r="D4">
-        <v>3.525577805703337</v>
+        <v>3.832792527754622</v>
       </c>
       <c r="E4">
-        <v>26.46895975988461</v>
+        <v>26.29205675092066</v>
       </c>
       <c r="F4">
-        <v>16.18963647903525</v>
+        <v>16.77524196999751</v>
       </c>
       <c r="G4">
-        <v>2.055526369339699</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>2.067904848094221</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.219025104047763</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -554,36 +563,39 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>12.44897348634379</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>13.22219463795195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.08694938015424</v>
+        <v>21.60325755213291</v>
       </c>
       <c r="C5">
-        <v>16.52587764114491</v>
+        <v>17.38639751806545</v>
       </c>
       <c r="D5">
-        <v>3.495912843721082</v>
+        <v>3.8038479697238</v>
       </c>
       <c r="E5">
-        <v>25.87476459299186</v>
+        <v>25.70602877535457</v>
       </c>
       <c r="F5">
-        <v>16.02808891136405</v>
+        <v>16.61400141833031</v>
       </c>
       <c r="G5">
-        <v>2.057380137012188</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+        <v>2.069508935871258</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.157456965053914</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -601,36 +613,39 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12.39910515610754</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>13.16640053864074</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.01023280990493</v>
+        <v>21.5278557199714</v>
       </c>
       <c r="C6">
-        <v>16.47395282490028</v>
+        <v>17.35625511068535</v>
       </c>
       <c r="D6">
-        <v>3.490966312316485</v>
+        <v>3.801949493575898</v>
       </c>
       <c r="E6">
-        <v>25.77512858479972</v>
+        <v>25.6076215683112</v>
       </c>
       <c r="F6">
-        <v>16.00159092923039</v>
+        <v>16.56959065989545</v>
       </c>
       <c r="G6">
-        <v>2.057689629649815</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
+        <v>2.069785124282182</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.147696317729529</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -648,36 +663,39 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.39121446165234</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>13.14325759494701</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.53750426788429</v>
+        <v>22.0436383199598</v>
       </c>
       <c r="C7">
-        <v>16.83112818660624</v>
+        <v>17.72496012806476</v>
       </c>
       <c r="D7">
-        <v>3.525179139713713</v>
+        <v>3.840354864596208</v>
       </c>
       <c r="E7">
-        <v>26.46101104974448</v>
+        <v>26.28390721346732</v>
       </c>
       <c r="F7">
-        <v>16.18743596040851</v>
+        <v>16.72497046929046</v>
       </c>
       <c r="G7">
-        <v>2.055551258425103</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
+        <v>2.067948371308099</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.219281481872532</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -695,36 +713,39 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>12.44827462669668</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>13.18309357079213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.73551876822907</v>
+        <v>24.18965281943812</v>
       </c>
       <c r="C8">
-        <v>18.32672470576468</v>
+        <v>19.23605219913242</v>
       </c>
       <c r="D8">
-        <v>3.672947966651937</v>
+        <v>3.999276235006756</v>
       </c>
       <c r="E8">
-        <v>29.34927899219528</v>
+        <v>29.12759134308105</v>
       </c>
       <c r="F8">
-        <v>17.05411325291634</v>
+        <v>17.48066969931257</v>
       </c>
       <c r="G8">
-        <v>2.046348848654694</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
+        <v>2.060047103224901</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.526447503311346</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -742,36 +763,39 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>12.75856900286794</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>13.42905389519076</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.58992846810313</v>
+        <v>27.93442201274501</v>
       </c>
       <c r="C9">
-        <v>20.96886708758744</v>
+        <v>21.87521780433195</v>
       </c>
       <c r="D9">
-        <v>3.949617738405444</v>
+        <v>4.28519168171126</v>
       </c>
       <c r="E9">
-        <v>34.54416360005666</v>
+        <v>34.22219387331137</v>
       </c>
       <c r="F9">
-        <v>18.91209816875172</v>
+        <v>19.11861968476379</v>
       </c>
       <c r="G9">
-        <v>2.029038174210597</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
+        <v>2.045252384990889</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>4.10380564727852</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -789,36 +813,39 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>13.5917046794574</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>14.10633865231042</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.1514239417783</v>
+        <v>30.40772020325911</v>
       </c>
       <c r="C10">
-        <v>22.73412734669459</v>
+        <v>23.68702372883381</v>
       </c>
       <c r="D10">
-        <v>4.143847419069983</v>
+        <v>4.490633029677658</v>
       </c>
       <c r="E10">
-        <v>38.10541674315342</v>
+        <v>37.69621569722742</v>
       </c>
       <c r="F10">
-        <v>20.38886581392279</v>
+        <v>20.34066971569571</v>
       </c>
       <c r="G10">
-        <v>2.016655865023571</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
+        <v>2.034760369430259</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>4.516657697344205</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -836,36 +863,39 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>14.35070574762169</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>14.6715795628238</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.25993359089109</v>
+        <v>31.47310337544135</v>
       </c>
       <c r="C11">
-        <v>23.49970860925279</v>
+        <v>24.54120525844531</v>
       </c>
       <c r="D11">
-        <v>4.230104353320488</v>
+        <v>4.593864647135679</v>
       </c>
       <c r="E11">
-        <v>39.67789339784362</v>
+        <v>39.22399010387477</v>
       </c>
       <c r="F11">
-        <v>21.22734920633512</v>
+        <v>20.84195610334727</v>
       </c>
       <c r="G11">
-        <v>2.011067233912696</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
+        <v>2.030073816721957</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>4.704272022066776</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -883,36 +913,39 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.87826780171814</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>14.89406522392085</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.67171679903262</v>
+        <v>31.86865553312921</v>
       </c>
       <c r="C12">
-        <v>23.7843128832263</v>
+        <v>24.82606913706412</v>
       </c>
       <c r="D12">
-        <v>4.262459450767984</v>
+        <v>4.626297573667372</v>
       </c>
       <c r="E12">
-        <v>40.26726686840232</v>
+        <v>39.79597566759793</v>
       </c>
       <c r="F12">
-        <v>21.54455073492708</v>
+        <v>21.06729681027591</v>
       </c>
       <c r="G12">
-        <v>2.008954605754061</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
+        <v>2.028291515289511</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>4.774263864951045</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -930,36 +963,39 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.11967569243916</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>15.01102215433058</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.58338413468093</v>
+        <v>31.78392708364931</v>
       </c>
       <c r="C13">
-        <v>23.72325271567976</v>
+        <v>24.75824459148323</v>
       </c>
       <c r="D13">
-        <v>4.2555049839369</v>
+        <v>4.618061515611747</v>
       </c>
       <c r="E13">
-        <v>40.14059250483037</v>
+        <v>39.67315116495583</v>
       </c>
       <c r="F13">
-        <v>21.47624739385646</v>
+        <v>21.02545369730817</v>
       </c>
       <c r="G13">
-        <v>2.009409481375923</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
+        <v>2.028672275112224</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>4.758984830741107</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -977,36 +1013,39 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.06767213539621</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>14.99156269212319</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.29397023183071</v>
+        <v>31.5058513439434</v>
       </c>
       <c r="C14">
-        <v>23.52322896401708</v>
+        <v>24.56187542589756</v>
       </c>
       <c r="D14">
-        <v>4.23277243299895</v>
+        <v>4.595999927109</v>
       </c>
       <c r="E14">
-        <v>39.72649888003885</v>
+        <v>39.27121018502821</v>
       </c>
       <c r="F14">
-        <v>21.25345106127962</v>
+        <v>20.86335585068473</v>
       </c>
       <c r="G14">
-        <v>2.010893369838846</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
+        <v>2.029925855351297</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>4.709938037566803</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1024,36 +1063,39 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.89812336330238</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>14.90613140823682</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.11566134438054</v>
+        <v>31.33425656028081</v>
       </c>
       <c r="C15">
-        <v>23.4000205008293</v>
+        <v>24.45434137348789</v>
       </c>
       <c r="D15">
-        <v>4.218807784540204</v>
+        <v>4.584954841394548</v>
       </c>
       <c r="E15">
-        <v>39.4720855897196</v>
+        <v>39.02400292111651</v>
       </c>
       <c r="F15">
-        <v>21.11694501275388</v>
+        <v>20.75075155625321</v>
       </c>
       <c r="G15">
-        <v>2.011802686326441</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
+        <v>2.030700154122882</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>4.68036410262308</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1071,36 +1113,39 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.79430259681137</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>14.84252412520621</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.07785302841312</v>
+        <v>30.33535654883388</v>
       </c>
       <c r="C16">
-        <v>22.68334771287208</v>
+        <v>23.74521113548175</v>
       </c>
       <c r="D16">
-        <v>4.138167417121538</v>
+        <v>4.50515019928633</v>
       </c>
       <c r="E16">
-        <v>38.00175647449707</v>
+        <v>37.59429436235822</v>
       </c>
       <c r="F16">
-        <v>20.33401832548837</v>
+        <v>20.19236493871767</v>
       </c>
       <c r="G16">
-        <v>2.01702176164178</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
+        <v>2.035116223417924</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>4.507698184996459</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1118,36 +1163,39 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.32663367291853</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>14.55769537661754</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.42677885381245</v>
+        <v>29.70756200589915</v>
       </c>
       <c r="C17">
-        <v>22.23415244515487</v>
+        <v>23.3021713885696</v>
       </c>
       <c r="D17">
-        <v>4.088153425241781</v>
+        <v>4.455623753089434</v>
       </c>
       <c r="E17">
-        <v>37.08807866683508</v>
+        <v>36.70432070767297</v>
       </c>
       <c r="F17">
-        <v>19.93861965021826</v>
+        <v>19.85176612296935</v>
       </c>
       <c r="G17">
-        <v>2.020232994310831</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
+        <v>2.037839544240324</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>4.401505555253156</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1165,36 +1213,39 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.11944004746706</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>14.38828333860699</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.046947438029</v>
+        <v>29.34140133159286</v>
       </c>
       <c r="C18">
-        <v>21.97225679478444</v>
+        <v>23.00866558759142</v>
       </c>
       <c r="D18">
-        <v>4.059189256481922</v>
+        <v>4.420389858226298</v>
       </c>
       <c r="E18">
-        <v>36.55802883949858</v>
+        <v>36.18782252526823</v>
       </c>
       <c r="F18">
-        <v>19.71922768052412</v>
+        <v>19.69256271080111</v>
       </c>
       <c r="G18">
-        <v>2.022084344121928</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+        <v>2.039396760793683</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>4.338614581514044</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1212,36 +1263,39 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.00341954567534</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>14.32352736784986</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.91741909144875</v>
+        <v>29.21609886079073</v>
       </c>
       <c r="C19">
-        <v>21.88297495701926</v>
+        <v>22.9362724434703</v>
       </c>
       <c r="D19">
-        <v>4.049348848841772</v>
+        <v>4.413465966819228</v>
       </c>
       <c r="E19">
-        <v>36.37776445352535</v>
+        <v>36.01183757130035</v>
       </c>
       <c r="F19">
-        <v>19.64525149608282</v>
+        <v>19.61110408100279</v>
       </c>
       <c r="G19">
-        <v>2.022712000138848</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+        <v>2.039936579996586</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>4.318543548889749</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1259,36 +1313,39 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.96467469230429</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>14.27824197408994</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.49663940566342</v>
+        <v>29.77500266814817</v>
       </c>
       <c r="C20">
-        <v>22.28233491534761</v>
+        <v>23.34686654937683</v>
       </c>
       <c r="D20">
-        <v>4.093497996693085</v>
+        <v>4.460406054748779</v>
       </c>
       <c r="E20">
-        <v>37.1858046053578</v>
+        <v>36.7995906127655</v>
       </c>
       <c r="F20">
-        <v>19.97936938415224</v>
+        <v>19.89074133592759</v>
       </c>
       <c r="G20">
-        <v>2.019890722975315</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
+        <v>2.037547896057977</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>4.412685807877819</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1306,36 +1363,39 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>14.1411691038638</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>14.40851390499954</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.37919336988499</v>
+        <v>31.58724288809329</v>
       </c>
       <c r="C21">
-        <v>23.58212402688103</v>
+        <v>24.65724537206995</v>
       </c>
       <c r="D21">
-        <v>4.239457939530541</v>
+        <v>4.609596873267936</v>
       </c>
       <c r="E21">
-        <v>39.84828698316163</v>
+        <v>39.38907693919166</v>
       </c>
       <c r="F21">
-        <v>21.3188991544826</v>
+        <v>20.87301828555561</v>
       </c>
       <c r="G21">
-        <v>2.010457439416305</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
+        <v>2.029573276824686</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>4.725745030086078</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1353,36 +1413,39 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>14.94791686169386</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>14.89816928808926</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.56309975540136</v>
+        <v>32.72367984419313</v>
       </c>
       <c r="C22">
-        <v>24.40074205320526</v>
+        <v>25.439988057616</v>
       </c>
       <c r="D22">
-        <v>4.333052850282511</v>
+        <v>4.696170458573605</v>
       </c>
       <c r="E22">
-        <v>41.55330773732182</v>
+        <v>41.04221790569364</v>
       </c>
       <c r="F22">
-        <v>22.24171177571109</v>
+        <v>21.56934619850209</v>
       </c>
       <c r="G22">
-        <v>2.004312106826866</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
+        <v>2.024380344840279</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>4.927843456026763</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1400,36 +1463,39 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.65111499022666</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>15.27773361539874</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.93541530105217</v>
+        <v>32.12216423825537</v>
       </c>
       <c r="C23">
-        <v>23.96662339225427</v>
+        <v>24.97970961732044</v>
       </c>
       <c r="D23">
-        <v>4.283265111233931</v>
+        <v>4.641614989579925</v>
       </c>
       <c r="E23">
-        <v>40.64623846627671</v>
+        <v>40.16378053206288</v>
       </c>
       <c r="F23">
-        <v>21.74929727521154</v>
+        <v>21.24243359141878</v>
       </c>
       <c r="G23">
-        <v>2.007591146489613</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
+        <v>2.027130046297772</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>4.818625660600418</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1447,36 +1513,39 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>15.27563020456801</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>15.11298383404167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.46507265713345</v>
+        <v>29.74554229594099</v>
       </c>
       <c r="C24">
-        <v>22.26056298690717</v>
+        <v>23.25189885899947</v>
       </c>
       <c r="D24">
-        <v>4.091082370915124</v>
+        <v>4.444475428226083</v>
       </c>
       <c r="E24">
-        <v>37.14163760331674</v>
+        <v>36.75721426407923</v>
       </c>
       <c r="F24">
-        <v>19.96094120223439</v>
+        <v>19.94848042801264</v>
       </c>
       <c r="G24">
-        <v>2.020045447546533</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
+        <v>2.037648255556793</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>4.404774556374785</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1494,36 +1563,39 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>14.13133575723807</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>14.46401615914885</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.59528256260786</v>
+        <v>26.96950157942045</v>
       </c>
       <c r="C25">
-        <v>20.28516814104458</v>
+        <v>21.26521956912221</v>
       </c>
       <c r="D25">
-        <v>3.876297461711919</v>
+        <v>4.22297074739902</v>
       </c>
       <c r="E25">
-        <v>33.1860734708765</v>
+        <v>32.89252398853505</v>
       </c>
       <c r="F25">
-        <v>18.39326957451287</v>
+        <v>18.59025070022433</v>
       </c>
       <c r="G25">
-        <v>2.033653362898404</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
+        <v>2.049217081647693</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.951725774018746</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1541,7 +1613,13 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>13.34113048339287</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>13.84317342993667</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_1/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_1/res_line/loading_percent.xlsx
@@ -427,49 +427,49 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.74038215810859</v>
+        <v>12.75772617423652</v>
       </c>
       <c r="C2">
-        <v>19.5636648860633</v>
+        <v>8.00583466513611</v>
       </c>
       <c r="D2">
-        <v>4.030612846141484</v>
+        <v>5.84299184624381</v>
       </c>
       <c r="E2">
-        <v>29.86504473444742</v>
+        <v>8.141662729086857</v>
       </c>
       <c r="F2">
-        <v>17.75518195868449</v>
+        <v>22.11158273634067</v>
       </c>
       <c r="G2">
-        <v>2.057930378311564</v>
+        <v>24.78658908866884</v>
       </c>
       <c r="I2">
-        <v>3.607045034057078</v>
+        <v>3.879645688224086</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>10.03240402267901</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>16.6284439113992</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.215862298898651</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.01809032782611</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.472361126985418</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>9.559469810781245</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>13.55683091514271</v>
+        <v>16.43782743285189</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -477,49 +477,49 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.11024366375046</v>
+        <v>11.93074163788337</v>
       </c>
       <c r="C3">
-        <v>18.41447534527523</v>
+        <v>7.866839589576878</v>
       </c>
       <c r="D3">
-        <v>3.90889586098775</v>
+        <v>5.689004474969021</v>
       </c>
       <c r="E3">
-        <v>27.69026846731998</v>
+        <v>8.151465388730182</v>
       </c>
       <c r="F3">
-        <v>17.14176945398584</v>
+        <v>22.13567841590224</v>
       </c>
       <c r="G3">
-        <v>2.064048891841666</v>
+        <v>24.86076553124734</v>
       </c>
       <c r="I3">
-        <v>3.368673817656461</v>
+        <v>4.031721176625372</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>10.11640482599475</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>16.79908227800247</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.253052244803915</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.45207911054903</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.4066117623204</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>9.226778686906902</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>13.33996087838208</v>
+        <v>16.557094703927</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -527,49 +527,49 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.05031507671086</v>
+        <v>11.3913261486638</v>
       </c>
       <c r="C4">
-        <v>17.67850506758756</v>
+        <v>7.780900536055826</v>
       </c>
       <c r="D4">
-        <v>3.832792527754622</v>
+        <v>5.594508078714196</v>
       </c>
       <c r="E4">
-        <v>26.29205675092066</v>
+        <v>8.15963874767229</v>
       </c>
       <c r="F4">
-        <v>16.77524196999751</v>
+        <v>22.16089023130274</v>
       </c>
       <c r="G4">
-        <v>2.067904848094221</v>
+        <v>24.92051500498124</v>
       </c>
       <c r="I4">
-        <v>3.219025104047763</v>
+        <v>4.129273695960848</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>10.17105579483021</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>16.90872824449301</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.276549953701373</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.08816181017122</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.368787090834611</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>9.018209838944937</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>13.22219463795195</v>
+        <v>16.63704300506018</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -577,49 +577,49 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.60325755213291</v>
+        <v>11.1612989820924</v>
       </c>
       <c r="C5">
-        <v>17.38639751806545</v>
+        <v>7.749196253196959</v>
       </c>
       <c r="D5">
-        <v>3.8038479697238</v>
+        <v>5.556659071323444</v>
       </c>
       <c r="E5">
-        <v>25.70602877535457</v>
+        <v>8.162729377826711</v>
       </c>
       <c r="F5">
-        <v>16.61400141833031</v>
+        <v>22.16808027516009</v>
       </c>
       <c r="G5">
-        <v>2.069508935871258</v>
+        <v>24.93902905341474</v>
       </c>
       <c r="I5">
-        <v>3.157456965053914</v>
+        <v>4.172486952260949</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>10.19255998221713</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>16.95072566509407</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.286029529840581</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.937299794284971</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.355328574139374</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>8.932692421034501</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>13.16640053864074</v>
+        <v>16.66746711860592</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -627,49 +627,49 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.5278557199714</v>
+        <v>11.11988609913441</v>
       </c>
       <c r="C6">
-        <v>17.35625511068535</v>
+        <v>7.748185085655781</v>
       </c>
       <c r="D6">
-        <v>3.801949493575898</v>
+        <v>5.551101766881663</v>
       </c>
       <c r="E6">
-        <v>25.6076215683112</v>
+        <v>8.162324180082775</v>
       </c>
       <c r="F6">
-        <v>16.56959065989545</v>
+        <v>22.16252967160248</v>
       </c>
       <c r="G6">
-        <v>2.069785124282182</v>
+        <v>24.93095658704805</v>
       </c>
       <c r="I6">
-        <v>3.147696317729529</v>
+        <v>4.182793790960409</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>10.19430786159496</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>16.9530153856096</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.287290434264181</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.913804964856588</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.354735411008263</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>8.918970926695295</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13.14325759494701</v>
+        <v>16.66796975092424</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -677,49 +677,49 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.0436383199598</v>
+        <v>11.38096441212515</v>
       </c>
       <c r="C7">
-        <v>17.72496012806476</v>
+        <v>7.792106355556822</v>
       </c>
       <c r="D7">
-        <v>3.840354864596208</v>
+        <v>5.595946790055689</v>
       </c>
       <c r="E7">
-        <v>26.28390721346732</v>
+        <v>8.157087779194567</v>
       </c>
       <c r="F7">
-        <v>16.72497046929046</v>
+        <v>22.1421696378509</v>
       </c>
       <c r="G7">
-        <v>2.067948371308099</v>
+        <v>24.88976869410181</v>
       </c>
       <c r="I7">
-        <v>3.219281481872532</v>
+        <v>4.137960513568697</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>10.16624853618651</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>16.89630804110847</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.275805293577021</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.09097828929379</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.372956269150015</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>9.018484614974424</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>13.18309357079213</v>
+        <v>16.62476414684646</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -727,49 +727,49 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.18965281943812</v>
+        <v>12.47023058530127</v>
       </c>
       <c r="C8">
-        <v>19.23605219913242</v>
+        <v>7.97344374326201</v>
       </c>
       <c r="D8">
-        <v>3.999276235006756</v>
+        <v>5.792400865115186</v>
       </c>
       <c r="E8">
-        <v>29.12759134308105</v>
+        <v>8.141190553514202</v>
       </c>
       <c r="F8">
-        <v>17.48066969931257</v>
+        <v>22.09295847892766</v>
       </c>
       <c r="G8">
-        <v>2.060047103224901</v>
+        <v>24.76829771429552</v>
       </c>
       <c r="I8">
-        <v>3.526447503311346</v>
+        <v>3.941479147017203</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>10.05401911215503</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>16.66913124141992</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.227444983775301</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>10.83246104714244</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.454825404137905</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>9.447467918910959</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>13.42905389519076</v>
+        <v>16.46079738222787</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -777,49 +777,49 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.93442201274501</v>
+        <v>14.3677755688881</v>
       </c>
       <c r="C9">
-        <v>21.87521780433195</v>
+        <v>8.30338491399675</v>
       </c>
       <c r="D9">
-        <v>4.28519168171126</v>
+        <v>6.172412707288459</v>
       </c>
       <c r="E9">
-        <v>34.22219387331137</v>
+        <v>8.131911975444449</v>
       </c>
       <c r="F9">
-        <v>19.11861968476379</v>
+        <v>22.11535633151667</v>
       </c>
       <c r="G9">
-        <v>2.045252384990889</v>
+        <v>24.70354368059689</v>
       </c>
       <c r="I9">
-        <v>4.10380564727852</v>
+        <v>3.575661268243736</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>9.867918999520635</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>16.28622289044084</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.139227674338805</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>12.14538538362352</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.627608470752855</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>10.24762321502303</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>14.10633865231042</v>
+        <v>16.21722942892471</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -827,49 +827,49 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.40772020325911</v>
+        <v>15.60810577769318</v>
       </c>
       <c r="C10">
-        <v>23.68702372883381</v>
+        <v>8.548616047695377</v>
       </c>
       <c r="D10">
-        <v>4.490633029677658</v>
+        <v>6.448366712402109</v>
       </c>
       <c r="E10">
-        <v>37.69621569722742</v>
+        <v>8.134676553963931</v>
       </c>
       <c r="F10">
-        <v>20.34066971569571</v>
+        <v>22.17866581261443</v>
       </c>
       <c r="G10">
-        <v>2.034760369430259</v>
+        <v>24.7205127048647</v>
       </c>
       <c r="I10">
-        <v>4.516657697344205</v>
+        <v>3.330966039045285</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>9.744721295352123</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>16.02377103993175</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.077014325855265</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>13.02787029327145</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.768151026323714</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>10.80690198270608</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>14.6715795628238</v>
+        <v>16.06879808166624</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -877,49 +877,49 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.47310337544135</v>
+        <v>16.1314318661347</v>
       </c>
       <c r="C11">
-        <v>24.54120525844531</v>
+        <v>8.678324859060368</v>
       </c>
       <c r="D11">
-        <v>4.593864647135679</v>
+        <v>6.57510191700735</v>
       </c>
       <c r="E11">
-        <v>39.22399010387477</v>
+        <v>8.134244189676417</v>
       </c>
       <c r="F11">
-        <v>20.84195610334727</v>
+        <v>22.1907786171613</v>
       </c>
       <c r="G11">
-        <v>2.030073816721957</v>
+        <v>24.69791389528866</v>
       </c>
       <c r="I11">
-        <v>4.704272022066776</v>
+        <v>3.238326483784606</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>9.684141994357633</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>15.88900766688114</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.04812076810668</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>13.41691130643713</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.840963651978009</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>11.055713785984</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>14.89406522392085</v>
+        <v>15.9894324852859</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -927,49 +927,49 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.86865553312921</v>
+        <v>16.32973517651695</v>
       </c>
       <c r="C12">
-        <v>24.82606913706412</v>
+        <v>8.717314953389605</v>
       </c>
       <c r="D12">
-        <v>4.626297573667372</v>
+        <v>6.621403112913208</v>
       </c>
       <c r="E12">
-        <v>39.79597566759793</v>
+        <v>8.136622898811238</v>
       </c>
       <c r="F12">
-        <v>21.06729681027591</v>
+        <v>22.21315139970903</v>
       </c>
       <c r="G12">
-        <v>2.028291515289511</v>
+        <v>24.71852670333424</v>
       </c>
       <c r="I12">
-        <v>4.774263864951045</v>
+        <v>3.196484751734584</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>9.666118060708479</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>15.85007354924269</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.037916692625567</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>13.55808060185411</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.865361638414398</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>11.14789089320348</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>15.01102215433058</v>
+        <v>15.97160948989151</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -977,49 +977,49 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.78392708364931</v>
+        <v>16.28815936057497</v>
       </c>
       <c r="C13">
-        <v>24.75824459148323</v>
+        <v>8.706906388429879</v>
       </c>
       <c r="D13">
-        <v>4.618061515611747</v>
+        <v>6.611158702403539</v>
       </c>
       <c r="E13">
-        <v>39.67315116495583</v>
+        <v>8.136534245699673</v>
       </c>
       <c r="F13">
-        <v>21.02545369730817</v>
+        <v>22.21142055499268</v>
       </c>
       <c r="G13">
-        <v>2.028672275112224</v>
+        <v>24.71922792549086</v>
       </c>
       <c r="I13">
-        <v>4.758984830741107</v>
+        <v>3.203887540880795</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>9.670853723365763</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>15.86068128396964</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>6.040239904305412</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>13.5271215527364</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.859394952933681</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>11.12790867908162</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>14.99156269212319</v>
+        <v>15.97758348596768</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1027,49 +1027,49 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.5058513439434</v>
+        <v>16.14823587008042</v>
       </c>
       <c r="C14">
-        <v>24.56187542589756</v>
+        <v>8.680676333881179</v>
       </c>
       <c r="D14">
-        <v>4.595999927109</v>
+        <v>6.578794907722632</v>
       </c>
       <c r="E14">
-        <v>39.27121018502821</v>
+        <v>8.134619623822161</v>
       </c>
       <c r="F14">
-        <v>20.86335585068473</v>
+        <v>22.19393050731185</v>
       </c>
       <c r="G14">
-        <v>2.029925855351297</v>
+        <v>24.70179302305946</v>
       </c>
       <c r="I14">
-        <v>4.709938037566803</v>
+        <v>3.234196781144944</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>9.683021267089439</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>15.88674715701386</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>6.047334692323686</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>13.42829058005172</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.842667050398159</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>11.06324248399708</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>14.90613140823682</v>
+        <v>15.98887206609442</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1077,49 +1077,49 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.33425656028081</v>
+        <v>16.06007337951858</v>
       </c>
       <c r="C15">
-        <v>24.45434137348789</v>
+        <v>8.668587117556447</v>
       </c>
       <c r="D15">
-        <v>4.584954841394548</v>
+        <v>6.55950360128455</v>
       </c>
       <c r="E15">
-        <v>39.02400292111651</v>
+        <v>8.132626148166279</v>
       </c>
       <c r="F15">
-        <v>20.75075155625321</v>
+        <v>22.17720381148178</v>
       </c>
       <c r="G15">
-        <v>2.030700154122882</v>
+        <v>24.68108955561357</v>
       </c>
       <c r="I15">
-        <v>4.68036410262308</v>
+        <v>3.256019010129543</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>9.688816561458523</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>15.89838027297774</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>6.051435315962353</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>13.3687493578278</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.833845703012339</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>11.02384765517946</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>14.84252412520621</v>
+        <v>15.99163663379056</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1127,49 +1127,49 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.33535654883388</v>
+        <v>15.55726934694392</v>
       </c>
       <c r="C16">
-        <v>23.74521113548175</v>
+        <v>8.573743127731984</v>
       </c>
       <c r="D16">
-        <v>4.50515019928633</v>
+        <v>6.444893496596414</v>
       </c>
       <c r="E16">
-        <v>37.59429436235822</v>
+        <v>8.127432323677439</v>
       </c>
       <c r="F16">
-        <v>20.19236493871767</v>
+        <v>22.12512952408271</v>
       </c>
       <c r="G16">
-        <v>2.035116223417924</v>
+        <v>24.63442655067432</v>
       </c>
       <c r="I16">
-        <v>4.507698184996459</v>
+        <v>3.362332565016084</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>9.734169102466327</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>15.99520867142669</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.076730251078802</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>13.01363387989953</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>6.775176214291186</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>10.79361651388036</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>14.55769537661754</v>
+        <v>16.03769576190985</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1177,49 +1177,49 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.70756200589915</v>
+        <v>15.24053333016095</v>
       </c>
       <c r="C17">
-        <v>23.3021713885696</v>
+        <v>8.51529221661014</v>
       </c>
       <c r="D17">
-        <v>4.455623753089434</v>
+        <v>6.374181012199778</v>
       </c>
       <c r="E17">
-        <v>36.70432070767297</v>
+        <v>8.124895597144292</v>
       </c>
       <c r="F17">
-        <v>19.85176612296935</v>
+        <v>22.09674545997811</v>
       </c>
       <c r="G17">
-        <v>2.037839544240324</v>
+        <v>24.61108016735245</v>
       </c>
       <c r="I17">
-        <v>4.401505555253156</v>
+        <v>3.428702961979983</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>9.763008979744244</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>16.05628691914641</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.09240665092964</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>12.7909777919583</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.739755541366768</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>10.65046754561867</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>14.38828333860699</v>
+        <v>16.06837438627786</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1227,49 +1227,49 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.34140133159286</v>
+        <v>15.06029095230493</v>
       </c>
       <c r="C18">
-        <v>23.00866558759142</v>
+        <v>8.471260947850439</v>
       </c>
       <c r="D18">
-        <v>4.420389858226298</v>
+        <v>6.331877817515995</v>
       </c>
       <c r="E18">
-        <v>36.18782252526823</v>
+        <v>8.125897260621304</v>
       </c>
       <c r="F18">
-        <v>19.69256271080111</v>
+        <v>22.0978217275118</v>
       </c>
       <c r="G18">
-        <v>2.039396760793683</v>
+        <v>24.62625906244505</v>
       </c>
       <c r="I18">
-        <v>4.338614581514044</v>
+        <v>3.458977747028276</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>9.784377065670649</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>16.10332656220219</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.102150754972098</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>12.65756554601836</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.715999541331369</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>10.56647470554539</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>14.32352736784986</v>
+        <v>16.0979262767877</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1277,49 +1277,49 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.21609886079073</v>
+        <v>14.99489871658149</v>
       </c>
       <c r="C19">
-        <v>22.9362724434703</v>
+        <v>8.464279741475634</v>
       </c>
       <c r="D19">
-        <v>4.413465966819228</v>
+        <v>6.318685395266573</v>
       </c>
       <c r="E19">
-        <v>36.01183757130035</v>
+        <v>8.124562146570828</v>
       </c>
       <c r="F19">
-        <v>19.61110408100279</v>
+        <v>22.08597980577863</v>
       </c>
       <c r="G19">
-        <v>2.039936579996586</v>
+        <v>24.61112260053631</v>
       </c>
       <c r="I19">
-        <v>4.318543548889749</v>
+        <v>3.475656058472843</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>9.78827023483375</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>16.11063293407385</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.104945057108149</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>12.6148562937013</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.71076467042559</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>10.53867391158666</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>14.27824197408994</v>
+        <v>16.09956550360997</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1327,49 +1327,49 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.77500266814817</v>
+        <v>15.27495309268546</v>
       </c>
       <c r="C20">
-        <v>23.34686654937683</v>
+        <v>8.520715979722846</v>
       </c>
       <c r="D20">
-        <v>4.460406054748779</v>
+        <v>6.381606192237371</v>
       </c>
       <c r="E20">
-        <v>36.7995906127655</v>
+        <v>8.125315370003214</v>
       </c>
       <c r="F20">
-        <v>19.89074133592759</v>
+        <v>22.10089557297063</v>
       </c>
       <c r="G20">
-        <v>2.037547896057977</v>
+        <v>24.61546091271358</v>
       </c>
       <c r="I20">
-        <v>4.412685807877819</v>
+        <v>3.420931712998128</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>9.760246989200668</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>16.0506094407513</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.090783893139899</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>12.8145829485619</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.743222955659977</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>10.66570113334529</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>14.40851390499954</v>
+        <v>16.06588399558526</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1377,49 +1377,49 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.58724288809329</v>
+        <v>16.18423967710993</v>
       </c>
       <c r="C21">
-        <v>24.65724537206995</v>
+        <v>8.699723610126227</v>
       </c>
       <c r="D21">
-        <v>4.609596873267936</v>
+        <v>6.589906921990771</v>
       </c>
       <c r="E21">
-        <v>39.38907693919166</v>
+        <v>8.132707103410866</v>
       </c>
       <c r="F21">
-        <v>20.87301828555561</v>
+        <v>22.18120151584805</v>
       </c>
       <c r="G21">
-        <v>2.029573276824686</v>
+        <v>24.67726830324587</v>
       </c>
       <c r="I21">
-        <v>4.725745030086078</v>
+        <v>3.234387987877053</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>9.674506530225379</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>15.86639744719733</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>6.044522911383318</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>13.46120019636782</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>6.851492059930552</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>11.08328481987487</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>14.89816928808926</v>
+        <v>15.97321300502799</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1427,49 +1427,49 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.72367984419313</v>
+        <v>16.75816008604847</v>
       </c>
       <c r="C22">
-        <v>25.439988057616</v>
+        <v>8.801438304906371</v>
       </c>
       <c r="D22">
-        <v>4.696170458573605</v>
+        <v>6.722539744877292</v>
       </c>
       <c r="E22">
-        <v>41.04221790569364</v>
+        <v>8.142814124080958</v>
       </c>
       <c r="F22">
-        <v>21.56934619850209</v>
+        <v>22.26820272071819</v>
       </c>
       <c r="G22">
-        <v>2.024380344840279</v>
+        <v>24.77298011951498</v>
       </c>
       <c r="I22">
-        <v>4.927843456026763</v>
+        <v>3.104523117889495</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>9.628140649985422</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>15.76772977460935</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>6.01571839448255</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>13.86316927998305</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>6.9190978887886</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>11.34840939162919</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>15.27773361539874</v>
+        <v>15.93646682545463</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1477,49 +1477,49 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.12216423825537</v>
+        <v>16.46053788795447</v>
       </c>
       <c r="C23">
-        <v>24.97970961732044</v>
+        <v>8.733625634094119</v>
       </c>
       <c r="D23">
-        <v>4.641614989579925</v>
+        <v>6.649984707026145</v>
       </c>
       <c r="E23">
-        <v>40.16378053206288</v>
+        <v>8.14019001779033</v>
       </c>
       <c r="F23">
-        <v>21.24243359141878</v>
+        <v>22.24209654105517</v>
       </c>
       <c r="G23">
-        <v>2.027130046297772</v>
+        <v>24.75581897756744</v>
       </c>
       <c r="I23">
-        <v>4.818625660600418</v>
+        <v>3.162832522179995</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>9.658506398606635</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>15.83515534709576</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>6.031918310775962</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>13.64553049139502</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>6.878146724773942</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>11.20630812923384</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>15.11298383404167</v>
+        <v>15.97014197568159</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1527,49 +1527,49 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.74554229594099</v>
+        <v>15.26984043005798</v>
       </c>
       <c r="C24">
-        <v>23.25189885899947</v>
+        <v>8.496567169063338</v>
       </c>
       <c r="D24">
-        <v>4.444475428226083</v>
+        <v>6.375107177430277</v>
       </c>
       <c r="E24">
-        <v>36.75721426407923</v>
+        <v>8.12982586048053</v>
       </c>
       <c r="F24">
-        <v>19.94848042801264</v>
+        <v>22.13307326783945</v>
       </c>
       <c r="G24">
-        <v>2.037648255556793</v>
+        <v>24.66995180536594</v>
       </c>
       <c r="I24">
-        <v>4.404774556374785</v>
+        <v>3.407576348776471</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>9.770838748774576</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>16.07714634025804</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.092926694967484</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>12.79639250411552</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.734078390775103</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>10.65677196575488</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>14.46401615914885</v>
+        <v>16.09037515481</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1577,49 +1577,49 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.96950157942045</v>
+        <v>13.87007847933219</v>
       </c>
       <c r="C25">
-        <v>21.26521956912221</v>
+        <v>8.235745759659554</v>
       </c>
       <c r="D25">
-        <v>4.22297074739902</v>
+        <v>6.073337593821235</v>
       </c>
       <c r="E25">
-        <v>32.89252398853505</v>
+        <v>8.127934835647482</v>
       </c>
       <c r="F25">
-        <v>18.59025070022433</v>
+        <v>22.06629312965937</v>
       </c>
       <c r="G25">
-        <v>2.049217081647693</v>
+        <v>24.65223586041263</v>
       </c>
       <c r="I25">
-        <v>3.951725774018746</v>
+        <v>3.68581376257818</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>9.906406273941879</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>16.36214281403402</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.161129276242476</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>11.81256649022062</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.586331356412119</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>10.03808456851129</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>13.84317342993667</v>
+        <v>16.25411745515189</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_1/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_1/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1205 +421,1355 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.75772617423652</v>
+        <v>12.76671445910804</v>
       </c>
       <c r="C2">
-        <v>8.00583466513611</v>
+        <v>7.648043988716699</v>
       </c>
       <c r="D2">
-        <v>5.84299184624381</v>
+        <v>5.879521993851513</v>
       </c>
       <c r="E2">
-        <v>8.141662729086857</v>
+        <v>7.998960866669429</v>
       </c>
       <c r="F2">
-        <v>22.11158273634067</v>
+        <v>21.46541314178372</v>
       </c>
       <c r="G2">
-        <v>24.78658908866884</v>
+        <v>23.48400523351781</v>
       </c>
       <c r="I2">
-        <v>3.879645688224086</v>
+        <v>3.673549911735555</v>
       </c>
       <c r="J2">
-        <v>10.03240402267901</v>
+        <v>9.967775605015365</v>
       </c>
       <c r="K2">
-        <v>16.6284439113992</v>
+        <v>15.95995452270264</v>
       </c>
       <c r="L2">
-        <v>6.215862298898651</v>
+        <v>12.58481179176763</v>
       </c>
       <c r="M2">
-        <v>11.01809032782611</v>
+        <v>10.97014292782848</v>
       </c>
       <c r="N2">
-        <v>6.472361126985418</v>
+        <v>6.107304504928977</v>
       </c>
       <c r="O2">
-        <v>9.559469810781245</v>
+        <v>11.11426514804769</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>6.630588917014649</v>
       </c>
       <c r="Q2">
-        <v>16.43782743285189</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>9.532706587617948</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>15.93737514433607</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.93074163788337</v>
+        <v>11.96526328807533</v>
       </c>
       <c r="C3">
-        <v>7.866839589576878</v>
+        <v>7.4358053846901</v>
       </c>
       <c r="D3">
-        <v>5.689004474969021</v>
+        <v>5.722084889792491</v>
       </c>
       <c r="E3">
-        <v>8.151465388730182</v>
+        <v>8.01180017545672</v>
       </c>
       <c r="F3">
-        <v>22.13567841590224</v>
+        <v>21.5124205813478</v>
       </c>
       <c r="G3">
-        <v>24.86076553124734</v>
+        <v>23.6542777899196</v>
       </c>
       <c r="I3">
-        <v>4.031721176625372</v>
+        <v>3.80900091426584</v>
       </c>
       <c r="J3">
-        <v>10.11640482599475</v>
+        <v>10.01902877726123</v>
       </c>
       <c r="K3">
-        <v>16.79908227800247</v>
+        <v>16.13814270944697</v>
       </c>
       <c r="L3">
-        <v>6.253052244803915</v>
+        <v>12.75747481338833</v>
       </c>
       <c r="M3">
-        <v>10.45207911054903</v>
+        <v>11.10608384647101</v>
       </c>
       <c r="N3">
-        <v>6.4066117623204</v>
+        <v>6.14207617355995</v>
       </c>
       <c r="O3">
-        <v>9.226778686906902</v>
+        <v>10.53858888404605</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>6.55874707231686</v>
       </c>
       <c r="Q3">
-        <v>16.557094703927</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>9.189655819265685</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>16.06892115991897</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.3913261486638</v>
+        <v>11.4428312000311</v>
       </c>
       <c r="C4">
-        <v>7.780900536055826</v>
+        <v>7.304402748167227</v>
       </c>
       <c r="D4">
-        <v>5.594508078714196</v>
+        <v>5.6255002680882</v>
       </c>
       <c r="E4">
-        <v>8.15963874767229</v>
+        <v>8.02166208675518</v>
       </c>
       <c r="F4">
-        <v>22.16089023130274</v>
+        <v>21.55016821443672</v>
       </c>
       <c r="G4">
-        <v>24.92051500498124</v>
+        <v>23.77357217981777</v>
       </c>
       <c r="I4">
-        <v>4.129273695960848</v>
+        <v>3.89616419310664</v>
       </c>
       <c r="J4">
-        <v>10.17105579483021</v>
+        <v>10.05200808804072</v>
       </c>
       <c r="K4">
-        <v>16.90872824449301</v>
+        <v>16.25130196768994</v>
       </c>
       <c r="L4">
-        <v>6.276549953701373</v>
+        <v>12.86669509557615</v>
       </c>
       <c r="M4">
-        <v>10.08816181017122</v>
+        <v>11.20518645945746</v>
       </c>
       <c r="N4">
-        <v>6.368787090834611</v>
+        <v>6.164038212987764</v>
       </c>
       <c r="O4">
-        <v>9.018209838944937</v>
+        <v>10.16860892451478</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.517426420029472</v>
       </c>
       <c r="Q4">
-        <v>16.63704300506018</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>8.974081817830001</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>16.15527887402027</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.1612989820924</v>
+        <v>11.22010622111444</v>
       </c>
       <c r="C5">
-        <v>7.749196253196959</v>
+        <v>7.254810552604981</v>
       </c>
       <c r="D5">
-        <v>5.556659071323444</v>
+        <v>5.586808754937568</v>
       </c>
       <c r="E5">
-        <v>8.162729377826711</v>
+        <v>8.025409397354712</v>
       </c>
       <c r="F5">
-        <v>22.16808027516009</v>
+        <v>21.56213151584366</v>
       </c>
       <c r="G5">
-        <v>24.93902905341474</v>
+        <v>23.8166150825803</v>
       </c>
       <c r="I5">
-        <v>4.172486952260949</v>
+        <v>3.935508366979908</v>
       </c>
       <c r="J5">
-        <v>10.19255998221713</v>
+        <v>10.06425076205132</v>
       </c>
       <c r="K5">
-        <v>16.95072566509407</v>
+        <v>16.29456722823246</v>
       </c>
       <c r="L5">
-        <v>6.286029529840581</v>
+        <v>12.90802372752582</v>
       </c>
       <c r="M5">
-        <v>9.937299794284971</v>
+        <v>11.2476897298578</v>
       </c>
       <c r="N5">
-        <v>6.355328574139374</v>
+        <v>6.172895426063955</v>
       </c>
       <c r="O5">
-        <v>8.932692421034501</v>
+        <v>10.01524744625689</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.502587602824026</v>
       </c>
       <c r="Q5">
-        <v>16.66746711860592</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>8.885545591578607</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>16.18809163855562</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.11988609913441</v>
+        <v>11.17997082395198</v>
       </c>
       <c r="C6">
-        <v>7.748185085655781</v>
+        <v>7.251717951319988</v>
       </c>
       <c r="D6">
-        <v>5.551101766881663</v>
+        <v>5.581108754089405</v>
       </c>
       <c r="E6">
-        <v>8.162324180082775</v>
+        <v>8.025125972068823</v>
       </c>
       <c r="F6">
-        <v>22.16252967160248</v>
+        <v>21.55740895480261</v>
       </c>
       <c r="G6">
-        <v>24.93095658704805</v>
+        <v>23.8128224199228</v>
       </c>
       <c r="I6">
-        <v>4.182793790960409</v>
+        <v>3.945711909023256</v>
       </c>
       <c r="J6">
-        <v>10.19430786159496</v>
+        <v>10.06438314888273</v>
       </c>
       <c r="K6">
-        <v>16.9530153856096</v>
+        <v>16.29718703431677</v>
       </c>
       <c r="L6">
-        <v>6.287290434264181</v>
+        <v>12.91007174755068</v>
       </c>
       <c r="M6">
-        <v>9.913804964856588</v>
+        <v>11.25284829908395</v>
       </c>
       <c r="N6">
-        <v>6.354735411008263</v>
+        <v>6.174072664664135</v>
       </c>
       <c r="O6">
-        <v>8.918970926695295</v>
+        <v>9.991326990489675</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.501744231653468</v>
       </c>
       <c r="Q6">
-        <v>16.66796975092424</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>8.871306345551941</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>16.18904030720824</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.38096441212515</v>
+        <v>11.43338021174337</v>
       </c>
       <c r="C7">
-        <v>7.792106355556822</v>
+        <v>7.315074513255014</v>
       </c>
       <c r="D7">
-        <v>5.595946790055689</v>
+        <v>5.630032260691696</v>
       </c>
       <c r="E7">
-        <v>8.157087779194567</v>
+        <v>8.019801878279695</v>
       </c>
       <c r="F7">
-        <v>22.1421696378509</v>
+        <v>21.52165902325278</v>
       </c>
       <c r="G7">
-        <v>24.88976869410181</v>
+        <v>23.79960692690084</v>
       </c>
       <c r="I7">
-        <v>4.137960513568697</v>
+        <v>3.906706638608505</v>
       </c>
       <c r="J7">
-        <v>10.16624853618651</v>
+        <v>10.02045003701527</v>
       </c>
       <c r="K7">
-        <v>16.89630804110847</v>
+        <v>16.23448563964034</v>
       </c>
       <c r="L7">
-        <v>6.275805293577021</v>
+        <v>12.84938248522104</v>
       </c>
       <c r="M7">
-        <v>10.09097828929379</v>
+        <v>11.19723275762684</v>
       </c>
       <c r="N7">
-        <v>6.372956269150015</v>
+        <v>6.163188105029743</v>
       </c>
       <c r="O7">
-        <v>9.018484614974424</v>
+        <v>10.17019094935809</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.521567821652516</v>
       </c>
       <c r="Q7">
-        <v>16.62476414684646</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>8.974762030035158</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>16.13604519385273</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.47023058530127</v>
+        <v>12.49005919829008</v>
       </c>
       <c r="C8">
-        <v>7.97344374326201</v>
+        <v>7.584914095923466</v>
       </c>
       <c r="D8">
-        <v>5.792400865115186</v>
+        <v>5.837766070916118</v>
       </c>
       <c r="E8">
-        <v>8.141190553514202</v>
+        <v>8.001793329899087</v>
       </c>
       <c r="F8">
-        <v>22.09295847892766</v>
+        <v>21.42224991216323</v>
       </c>
       <c r="G8">
-        <v>24.76829771429552</v>
+        <v>23.68772290465033</v>
       </c>
       <c r="I8">
-        <v>3.941479147017203</v>
+        <v>3.732988213702483</v>
       </c>
       <c r="J8">
-        <v>10.05401911215503</v>
+        <v>9.892231319445415</v>
       </c>
       <c r="K8">
-        <v>16.66913124141992</v>
+        <v>15.98842756676392</v>
       </c>
       <c r="L8">
-        <v>6.227444983775301</v>
+        <v>12.61349881254116</v>
       </c>
       <c r="M8">
-        <v>10.83246104714244</v>
+        <v>10.99483143962709</v>
       </c>
       <c r="N8">
-        <v>6.454825404137905</v>
+        <v>6.117675031632051</v>
       </c>
       <c r="O8">
-        <v>9.447467918910959</v>
+        <v>10.92169641646947</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>6.610969309239143</v>
       </c>
       <c r="Q8">
-        <v>16.46079738222787</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>9.418641992241065</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>15.9414225765228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.3677755688881</v>
+        <v>14.33067798838913</v>
       </c>
       <c r="C9">
-        <v>8.30338491399675</v>
+        <v>8.088706735673426</v>
       </c>
       <c r="D9">
-        <v>6.172412707288459</v>
+        <v>6.228441270629622</v>
       </c>
       <c r="E9">
-        <v>8.131911975444449</v>
+        <v>7.984539325742583</v>
       </c>
       <c r="F9">
-        <v>22.11535633151667</v>
+        <v>21.37001693370164</v>
       </c>
       <c r="G9">
-        <v>24.70354368059689</v>
+        <v>23.44127651064191</v>
       </c>
       <c r="I9">
-        <v>3.575661268243736</v>
+        <v>3.406390494086793</v>
       </c>
       <c r="J9">
-        <v>9.867918999520635</v>
+        <v>9.755188824395226</v>
       </c>
       <c r="K9">
-        <v>16.28622289044084</v>
+        <v>15.57549310900601</v>
       </c>
       <c r="L9">
-        <v>6.139227674338805</v>
+        <v>12.21435105374901</v>
       </c>
       <c r="M9">
-        <v>12.14538538362352</v>
+        <v>10.74720032159825</v>
       </c>
       <c r="N9">
-        <v>6.627608470752855</v>
+        <v>6.035093996351176</v>
       </c>
       <c r="O9">
-        <v>10.24762321502303</v>
+        <v>12.25717594627989</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>6.800190581639908</v>
       </c>
       <c r="Q9">
-        <v>16.21722942892471</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>10.24111805918331</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>15.65389537081094</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.60810577769318</v>
+        <v>15.53761798542089</v>
       </c>
       <c r="C10">
-        <v>8.548616047695377</v>
+        <v>8.443511270160936</v>
       </c>
       <c r="D10">
-        <v>6.448366712402109</v>
+        <v>6.528063729650803</v>
       </c>
       <c r="E10">
-        <v>8.134676553963931</v>
+        <v>7.984550469714604</v>
       </c>
       <c r="F10">
-        <v>22.17866581261443</v>
+        <v>21.31398429232338</v>
       </c>
       <c r="G10">
-        <v>24.7205127048647</v>
+        <v>23.67320922766361</v>
       </c>
       <c r="I10">
-        <v>3.330966039045285</v>
+        <v>3.192887543721719</v>
       </c>
       <c r="J10">
-        <v>9.744721295352123</v>
+        <v>9.516639845450824</v>
       </c>
       <c r="K10">
-        <v>16.02377103993175</v>
+        <v>15.2578201111755</v>
       </c>
       <c r="L10">
-        <v>6.077014325855265</v>
+        <v>11.91234178368742</v>
       </c>
       <c r="M10">
-        <v>13.02787029327145</v>
+        <v>10.61999465235914</v>
       </c>
       <c r="N10">
-        <v>6.768151026323714</v>
+        <v>5.976159673840614</v>
       </c>
       <c r="O10">
-        <v>10.80690198270608</v>
+        <v>13.14967285239969</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>6.953700270793474</v>
       </c>
       <c r="Q10">
-        <v>16.06879808166624</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>10.81540623841989</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>15.42544177674245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.1314318661347</v>
+        <v>16.05232392626913</v>
       </c>
       <c r="C11">
-        <v>8.678324859060368</v>
+        <v>8.600508080018708</v>
       </c>
       <c r="D11">
-        <v>6.57510191700735</v>
+        <v>6.693356382492989</v>
       </c>
       <c r="E11">
-        <v>8.134244189676417</v>
+        <v>7.989973675861646</v>
       </c>
       <c r="F11">
-        <v>22.1907786171613</v>
+        <v>21.17002692414083</v>
       </c>
       <c r="G11">
-        <v>24.69791389528866</v>
+        <v>24.37566434008481</v>
       </c>
       <c r="I11">
-        <v>3.238326483784606</v>
+        <v>3.120512623563328</v>
       </c>
       <c r="J11">
-        <v>9.684141994357633</v>
+        <v>9.183989421427155</v>
       </c>
       <c r="K11">
-        <v>15.88900766688114</v>
+        <v>15.05043030052648</v>
       </c>
       <c r="L11">
-        <v>6.04812076810668</v>
+        <v>11.73381712416688</v>
       </c>
       <c r="M11">
-        <v>13.41691130643713</v>
+        <v>10.52242099911343</v>
       </c>
       <c r="N11">
-        <v>6.840963651978009</v>
+        <v>5.947725332936584</v>
       </c>
       <c r="O11">
-        <v>11.055713785984</v>
+        <v>13.53420049827409</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>7.032463649511235</v>
       </c>
       <c r="Q11">
-        <v>15.9894324852859</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>11.07338836449772</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>15.23535887809632</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.32973517651695</v>
+        <v>16.24808181688314</v>
       </c>
       <c r="C12">
-        <v>8.717314953389605</v>
+        <v>8.644799417420669</v>
       </c>
       <c r="D12">
-        <v>6.621403112913208</v>
+        <v>6.757663122671287</v>
       </c>
       <c r="E12">
-        <v>8.136622898811238</v>
+        <v>7.995505056467783</v>
       </c>
       <c r="F12">
-        <v>22.21315139970903</v>
+        <v>21.11961264509986</v>
       </c>
       <c r="G12">
-        <v>24.71852670333424</v>
+        <v>24.75959322419302</v>
       </c>
       <c r="I12">
-        <v>3.196484751734584</v>
+        <v>3.085231805917658</v>
       </c>
       <c r="J12">
-        <v>9.666118060708479</v>
+        <v>9.048810693047606</v>
       </c>
       <c r="K12">
-        <v>15.85007354924269</v>
+        <v>14.97666064955603</v>
       </c>
       <c r="L12">
-        <v>6.037916692625567</v>
+        <v>11.67088834085294</v>
       </c>
       <c r="M12">
-        <v>13.55808060185411</v>
+        <v>10.49045787392134</v>
       </c>
       <c r="N12">
-        <v>6.865361638414398</v>
+        <v>5.937473836987991</v>
       </c>
       <c r="O12">
-        <v>11.14789089320348</v>
+        <v>13.672682653107</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>7.059120239284297</v>
       </c>
       <c r="Q12">
-        <v>15.97160948989151</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>11.16926385403524</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>15.16527888052676</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.28815936057497</v>
+        <v>16.20700533446118</v>
       </c>
       <c r="C13">
-        <v>8.706906388429879</v>
+        <v>8.633005826990495</v>
       </c>
       <c r="D13">
-        <v>6.611158702403539</v>
+        <v>6.743389408214676</v>
       </c>
       <c r="E13">
-        <v>8.136534245699673</v>
+        <v>7.994681326425808</v>
       </c>
       <c r="F13">
-        <v>22.21142055499268</v>
+        <v>21.13404057823717</v>
       </c>
       <c r="G13">
-        <v>24.71922792549086</v>
+        <v>24.67807750562534</v>
       </c>
       <c r="I13">
-        <v>3.203887540880795</v>
+        <v>3.090907643635788</v>
       </c>
       <c r="J13">
-        <v>9.670853723365763</v>
+        <v>9.078770000083656</v>
       </c>
       <c r="K13">
-        <v>15.86068128396964</v>
+        <v>14.99482647208997</v>
       </c>
       <c r="L13">
-        <v>6.040239904305412</v>
+        <v>11.68592749493971</v>
       </c>
       <c r="M13">
-        <v>13.5271215527364</v>
+        <v>10.49923152184741</v>
       </c>
       <c r="N13">
-        <v>6.859394952933681</v>
+        <v>5.939793188699344</v>
       </c>
       <c r="O13">
-        <v>11.12790867908162</v>
+        <v>13.64234597148946</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>7.052675552183693</v>
       </c>
       <c r="Q13">
-        <v>15.97758348596768</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>11.14847986470632</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>15.18281939938188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.14823587008042</v>
+        <v>16.06889685446539</v>
       </c>
       <c r="C14">
-        <v>8.680676333881179</v>
+        <v>8.603193176630615</v>
       </c>
       <c r="D14">
-        <v>6.578794907722632</v>
+        <v>6.698462601904046</v>
       </c>
       <c r="E14">
-        <v>8.134619623822161</v>
+        <v>7.990583557899524</v>
       </c>
       <c r="F14">
-        <v>22.19393050731185</v>
+        <v>21.16741239276459</v>
       </c>
       <c r="G14">
-        <v>24.70179302305946</v>
+        <v>24.40764457014242</v>
       </c>
       <c r="I14">
-        <v>3.234196781144944</v>
+        <v>3.116787617713366</v>
       </c>
       <c r="J14">
-        <v>9.683021267089439</v>
+        <v>9.173284644021383</v>
       </c>
       <c r="K14">
-        <v>15.88674715701386</v>
+        <v>15.04533926033136</v>
       </c>
       <c r="L14">
-        <v>6.047334692323686</v>
+        <v>11.72928537325435</v>
       </c>
       <c r="M14">
-        <v>13.42829058005172</v>
+        <v>10.5205939666368</v>
       </c>
       <c r="N14">
-        <v>6.842667050398159</v>
+        <v>5.946929703379387</v>
       </c>
       <c r="O14">
-        <v>11.06324248399708</v>
+        <v>13.54537848166185</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>7.034356427460042</v>
       </c>
       <c r="Q14">
-        <v>15.98887206609442</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>11.0812188128222</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>15.23064564082587</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.06007337951858</v>
+        <v>15.98197612312605</v>
       </c>
       <c r="C15">
-        <v>8.668587117556447</v>
+        <v>8.589283439758244</v>
       </c>
       <c r="D15">
-        <v>6.55950360128455</v>
+        <v>6.671918977629749</v>
       </c>
       <c r="E15">
-        <v>8.132626148166279</v>
+        <v>7.987406408573848</v>
       </c>
       <c r="F15">
-        <v>22.17720381148178</v>
+        <v>21.18030447551418</v>
       </c>
       <c r="G15">
-        <v>24.68108955561357</v>
+        <v>24.24367702227333</v>
       </c>
       <c r="I15">
-        <v>3.256019010129543</v>
+        <v>3.136547015997842</v>
       </c>
       <c r="J15">
-        <v>9.688816561458523</v>
+        <v>9.228732556221159</v>
       </c>
       <c r="K15">
-        <v>15.89838027297774</v>
+        <v>15.07152189303511</v>
       </c>
       <c r="L15">
-        <v>6.051435315962353</v>
+        <v>11.75270858671894</v>
       </c>
       <c r="M15">
-        <v>13.3687493578278</v>
+        <v>10.52984403405971</v>
       </c>
       <c r="N15">
-        <v>6.833845703012339</v>
+        <v>5.951076533920714</v>
       </c>
       <c r="O15">
-        <v>11.02384765517946</v>
+        <v>13.48685037294839</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>7.024542763889617</v>
       </c>
       <c r="Q15">
-        <v>15.99163663379056</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>11.04025390984461</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>15.25472877241987</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.55726934694392</v>
+        <v>15.48768289659719</v>
       </c>
       <c r="C16">
-        <v>8.573743127731984</v>
+        <v>8.473167131522938</v>
       </c>
       <c r="D16">
-        <v>6.444893496596414</v>
+        <v>6.522504926406871</v>
       </c>
       <c r="E16">
-        <v>8.127432323677439</v>
+        <v>7.977231833782261</v>
       </c>
       <c r="F16">
-        <v>22.12512952408271</v>
+        <v>21.27040731871012</v>
       </c>
       <c r="G16">
-        <v>24.63442655067432</v>
+        <v>23.55100657907654</v>
       </c>
       <c r="I16">
-        <v>3.362332565016084</v>
+        <v>3.227809863319925</v>
       </c>
       <c r="J16">
-        <v>9.734169102466327</v>
+        <v>9.523125208102384</v>
       </c>
       <c r="K16">
-        <v>15.99520867142669</v>
+        <v>15.23621131306925</v>
       </c>
       <c r="L16">
-        <v>6.076730251078802</v>
+        <v>11.89880409331466</v>
       </c>
       <c r="M16">
-        <v>13.01363387989953</v>
+        <v>10.59802677311558</v>
       </c>
       <c r="N16">
-        <v>6.775176214291186</v>
+        <v>5.976125052373389</v>
       </c>
       <c r="O16">
-        <v>10.79361651388036</v>
+        <v>13.13556687548876</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>6.960226048452321</v>
       </c>
       <c r="Q16">
-        <v>16.03769576190985</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>10.80149652341527</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>15.40194083735736</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.24053333016095</v>
+        <v>15.17754794876911</v>
       </c>
       <c r="C17">
-        <v>8.51529221661014</v>
+        <v>8.396181899226812</v>
       </c>
       <c r="D17">
-        <v>6.374181012199778</v>
+        <v>6.436319026607497</v>
       </c>
       <c r="E17">
-        <v>8.124895597144292</v>
+        <v>7.973221433632541</v>
       </c>
       <c r="F17">
-        <v>22.09674545997811</v>
+        <v>21.30680345542299</v>
       </c>
       <c r="G17">
-        <v>24.61108016735245</v>
+        <v>23.27449951084298</v>
       </c>
       <c r="I17">
-        <v>3.428702961979983</v>
+        <v>3.285586474199978</v>
       </c>
       <c r="J17">
-        <v>9.763008979744244</v>
+        <v>9.664936441302101</v>
       </c>
       <c r="K17">
-        <v>16.05628691914641</v>
+        <v>15.32801943757979</v>
       </c>
       <c r="L17">
-        <v>6.09240665092964</v>
+        <v>11.98310402668493</v>
       </c>
       <c r="M17">
-        <v>12.7909777919583</v>
+        <v>10.63508313301732</v>
       </c>
       <c r="N17">
-        <v>6.739755541366768</v>
+        <v>5.991401923289087</v>
       </c>
       <c r="O17">
-        <v>10.65046754561867</v>
+        <v>12.91343291493675</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>6.921334609367672</v>
       </c>
       <c r="Q17">
-        <v>16.06837438627786</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>10.65352995750258</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>15.4780765069675</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.06029095230493</v>
+        <v>15.00153368184095</v>
       </c>
       <c r="C18">
-        <v>8.471260947850439</v>
+        <v>8.337350224906631</v>
       </c>
       <c r="D18">
-        <v>6.331877817515995</v>
+        <v>6.387232659656321</v>
       </c>
       <c r="E18">
-        <v>8.125897260621304</v>
+        <v>7.973850389670034</v>
       </c>
       <c r="F18">
-        <v>22.0978217275118</v>
+        <v>21.33685199654451</v>
       </c>
       <c r="G18">
-        <v>24.62625906244505</v>
+        <v>23.19184785772803</v>
       </c>
       <c r="I18">
-        <v>3.458977747028276</v>
+        <v>3.309528336340076</v>
       </c>
       <c r="J18">
-        <v>9.784377065670649</v>
+        <v>9.733459541166075</v>
       </c>
       <c r="K18">
-        <v>16.10332656220219</v>
+        <v>15.38811053319057</v>
       </c>
       <c r="L18">
-        <v>6.102150754972098</v>
+        <v>12.03742220928541</v>
       </c>
       <c r="M18">
-        <v>12.65756554601836</v>
+        <v>10.6631837702927</v>
       </c>
       <c r="N18">
-        <v>6.715999541331369</v>
+        <v>6.00073791073543</v>
       </c>
       <c r="O18">
-        <v>10.56647470554539</v>
+        <v>12.77964009716724</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>6.895625239560974</v>
       </c>
       <c r="Q18">
-        <v>16.0979262767877</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>10.56694623623864</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>15.52754487717021</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.99489871658149</v>
+        <v>14.93771434552617</v>
       </c>
       <c r="C19">
-        <v>8.464279741475634</v>
+        <v>8.326639559766395</v>
       </c>
       <c r="D19">
-        <v>6.318685395266573</v>
+        <v>6.372092498467211</v>
       </c>
       <c r="E19">
-        <v>8.124562146570828</v>
+        <v>7.972519979654315</v>
       </c>
       <c r="F19">
-        <v>22.08597980577863</v>
+        <v>21.33380527674218</v>
       </c>
       <c r="G19">
-        <v>24.61112260053631</v>
+        <v>23.15169960213574</v>
       </c>
       <c r="I19">
-        <v>3.475656058472843</v>
+        <v>3.325361585655222</v>
       </c>
       <c r="J19">
-        <v>9.78827023483375</v>
+        <v>9.750324784063073</v>
       </c>
       <c r="K19">
-        <v>16.11063293407385</v>
+        <v>15.39981547553039</v>
       </c>
       <c r="L19">
-        <v>6.104945057108149</v>
+        <v>12.04936950857926</v>
       </c>
       <c r="M19">
-        <v>12.6148562937013</v>
+        <v>10.6661410872158</v>
       </c>
       <c r="N19">
-        <v>6.71076467042559</v>
+        <v>6.003443432446074</v>
       </c>
       <c r="O19">
-        <v>10.53867391158666</v>
+        <v>12.73667658332215</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>6.889705650122097</v>
       </c>
       <c r="Q19">
-        <v>16.09956550360997</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>10.53828395408156</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>15.53528484019742</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.27495309268546</v>
+        <v>15.21120732831633</v>
       </c>
       <c r="C20">
-        <v>8.520715979722846</v>
+        <v>8.40362479158242</v>
       </c>
       <c r="D20">
-        <v>6.381606192237371</v>
+        <v>6.445172889925711</v>
       </c>
       <c r="E20">
-        <v>8.125315370003214</v>
+        <v>7.973737578987115</v>
       </c>
       <c r="F20">
-        <v>22.10089557297063</v>
+        <v>21.30484972750823</v>
       </c>
       <c r="G20">
-        <v>24.61546091271358</v>
+        <v>23.30073498936046</v>
       </c>
       <c r="I20">
-        <v>3.420931712998128</v>
+        <v>3.278572478637545</v>
       </c>
       <c r="J20">
-        <v>9.760246989200668</v>
+        <v>9.651894856566731</v>
       </c>
       <c r="K20">
-        <v>16.0506094407513</v>
+        <v>15.31940477260008</v>
       </c>
       <c r="L20">
-        <v>6.090783893139899</v>
+        <v>11.97494958466918</v>
       </c>
       <c r="M20">
-        <v>12.8145829485619</v>
+        <v>10.6319441871712</v>
       </c>
       <c r="N20">
-        <v>6.743222955659977</v>
+        <v>5.989824536770272</v>
       </c>
       <c r="O20">
-        <v>10.66570113334529</v>
+        <v>12.93705405938252</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>6.925173398008227</v>
       </c>
       <c r="Q20">
-        <v>16.06588399558526</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>10.66926110088886</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>15.4713196971457</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.18423967710993</v>
+        <v>16.10640032123521</v>
       </c>
       <c r="C21">
-        <v>8.699723610126227</v>
+        <v>8.616734850934646</v>
       </c>
       <c r="D21">
-        <v>6.589906921990771</v>
+        <v>6.723183381878009</v>
       </c>
       <c r="E21">
-        <v>8.132707103410866</v>
+        <v>7.991909639555505</v>
       </c>
       <c r="F21">
-        <v>22.18120151584805</v>
+        <v>21.10494836864046</v>
       </c>
       <c r="G21">
-        <v>24.67726830324587</v>
+        <v>24.67921400501149</v>
       </c>
       <c r="I21">
-        <v>3.234387987877053</v>
+        <v>3.121204262475857</v>
       </c>
       <c r="J21">
-        <v>9.674506530225379</v>
+        <v>9.073991457853401</v>
       </c>
       <c r="K21">
-        <v>15.86639744719733</v>
+        <v>15.002416174918</v>
       </c>
       <c r="L21">
-        <v>6.044522911383318</v>
+        <v>11.69736435150266</v>
       </c>
       <c r="M21">
-        <v>13.46120019636782</v>
+        <v>10.49049388477784</v>
       </c>
       <c r="N21">
-        <v>6.851492059930552</v>
+        <v>5.943800345982572</v>
       </c>
       <c r="O21">
-        <v>11.08328481987487</v>
+        <v>13.57465545193943</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>7.043604570532523</v>
       </c>
       <c r="Q21">
-        <v>15.97321300502799</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>11.10311477102701</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>15.17922338155778</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.75816008604847</v>
+        <v>16.67234813530655</v>
       </c>
       <c r="C22">
-        <v>8.801438304906371</v>
+        <v>8.735076882902987</v>
       </c>
       <c r="D22">
-        <v>6.722539744877292</v>
+        <v>6.904667057547756</v>
       </c>
       <c r="E22">
-        <v>8.142814124080958</v>
+        <v>8.010600035681852</v>
       </c>
       <c r="F22">
-        <v>22.26820272071819</v>
+        <v>20.98960934680864</v>
       </c>
       <c r="G22">
-        <v>24.77298011951498</v>
+        <v>25.78649830755604</v>
       </c>
       <c r="I22">
-        <v>3.104523117889495</v>
+        <v>3.007890652983391</v>
       </c>
       <c r="J22">
-        <v>9.628140649985422</v>
+        <v>8.752603164981696</v>
       </c>
       <c r="K22">
-        <v>15.76772977460935</v>
+        <v>14.80545092220612</v>
       </c>
       <c r="L22">
-        <v>6.01571839448255</v>
+        <v>11.52906792782254</v>
       </c>
       <c r="M22">
-        <v>13.86316927998305</v>
+        <v>10.41431121387312</v>
       </c>
       <c r="N22">
-        <v>6.9190978887886</v>
+        <v>5.914933838811772</v>
       </c>
       <c r="O22">
-        <v>11.34840939162919</v>
+        <v>13.97018719502041</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>7.117732905434912</v>
       </c>
       <c r="Q22">
-        <v>15.93646682545463</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>11.37825027269763</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>14.99652824856607</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.46053788795447</v>
+        <v>16.3774035603399</v>
       </c>
       <c r="C23">
-        <v>8.733625634094119</v>
+        <v>8.662100629961545</v>
       </c>
       <c r="D23">
-        <v>6.649984707026145</v>
+        <v>6.798837494010044</v>
       </c>
       <c r="E23">
-        <v>8.14019001779033</v>
+        <v>8.001364814083658</v>
       </c>
       <c r="F23">
-        <v>22.24209654105517</v>
+        <v>21.09720638175031</v>
       </c>
       <c r="G23">
-        <v>24.75581897756744</v>
+        <v>25.05859262202667</v>
       </c>
       <c r="I23">
-        <v>3.162832522179995</v>
+        <v>3.054592068806238</v>
       </c>
       <c r="J23">
-        <v>9.658506398606635</v>
+        <v>8.962803455580598</v>
       </c>
       <c r="K23">
-        <v>15.83515534709576</v>
+        <v>14.93630553098632</v>
       </c>
       <c r="L23">
-        <v>6.031918310775962</v>
+        <v>11.63547372075994</v>
       </c>
       <c r="M23">
-        <v>13.64553049139502</v>
+        <v>10.4763941818876</v>
       </c>
       <c r="N23">
-        <v>6.878146724773942</v>
+        <v>5.931321020193327</v>
       </c>
       <c r="O23">
-        <v>11.20630812923384</v>
+        <v>13.75814041919067</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>7.073379855397357</v>
       </c>
       <c r="Q23">
-        <v>15.97014197568159</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>11.23013696402015</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>15.12659540555965</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.26984043005798</v>
+        <v>15.20628721109529</v>
       </c>
       <c r="C24">
-        <v>8.496567169063338</v>
+        <v>8.374141845439739</v>
       </c>
       <c r="D24">
-        <v>6.375107177430277</v>
+        <v>6.438042440204993</v>
       </c>
       <c r="E24">
-        <v>8.12982586048053</v>
+        <v>7.978083727472868</v>
       </c>
       <c r="F24">
-        <v>22.13307326783945</v>
+        <v>21.33892454994958</v>
       </c>
       <c r="G24">
-        <v>24.66995180536594</v>
+        <v>23.34477826632495</v>
       </c>
       <c r="I24">
-        <v>3.407576348776471</v>
+        <v>3.261585394615177</v>
       </c>
       <c r="J24">
-        <v>9.770838748774576</v>
+        <v>9.666448822681668</v>
       </c>
       <c r="K24">
-        <v>16.07714634025804</v>
+        <v>15.34550288096935</v>
       </c>
       <c r="L24">
-        <v>6.092926694967484</v>
+        <v>11.99507294703022</v>
       </c>
       <c r="M24">
-        <v>12.79639250411552</v>
+        <v>10.65095618323989</v>
       </c>
       <c r="N24">
-        <v>6.734078390775103</v>
+        <v>5.991763514228829</v>
       </c>
       <c r="O24">
-        <v>10.65677196575488</v>
+        <v>12.91887429820296</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>6.91593147820381</v>
       </c>
       <c r="Q24">
-        <v>16.09037515481</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>10.66014264265043</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>15.49680620840192</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.87007847933219</v>
+        <v>13.84672814585605</v>
       </c>
       <c r="C25">
-        <v>8.235745759659554</v>
+        <v>7.982973535913477</v>
       </c>
       <c r="D25">
-        <v>6.073337593821235</v>
+        <v>6.122365568441263</v>
       </c>
       <c r="E25">
-        <v>8.127934835647482</v>
+        <v>7.98204037777072</v>
       </c>
       <c r="F25">
-        <v>22.06629312965937</v>
+        <v>21.3572793152852</v>
       </c>
       <c r="G25">
-        <v>24.65223586041263</v>
+        <v>23.35707768591411</v>
       </c>
       <c r="I25">
-        <v>3.68581376257818</v>
+        <v>3.508197934236489</v>
       </c>
       <c r="J25">
-        <v>9.906406273941879</v>
+        <v>9.818540692108359</v>
       </c>
       <c r="K25">
-        <v>16.36214281403402</v>
+        <v>15.66874648915472</v>
       </c>
       <c r="L25">
-        <v>6.161129276242476</v>
+        <v>12.30713791282908</v>
       </c>
       <c r="M25">
-        <v>11.81256649022062</v>
+        <v>10.78937337238188</v>
       </c>
       <c r="N25">
-        <v>6.586331356412119</v>
+        <v>6.055856658704788</v>
       </c>
       <c r="O25">
-        <v>10.03808456851129</v>
+        <v>11.91985155539954</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>6.754184737987698</v>
       </c>
       <c r="Q25">
-        <v>16.25411745515189</v>
+        <v>10.02554513726244</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>15.71467876618728</v>
       </c>
     </row>
   </sheetData>
